--- a/data/Items.xlsx
+++ b/data/Items.xlsx
@@ -1525,7 +1525,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C337"/>
+  <dimension ref="A1:D337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,1693 +1533,1693 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>219</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>338</v>
       </c>

--- a/data/Items.xlsx
+++ b/data/Items.xlsx
@@ -1,90 +1,159 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7minMqyfA7Gi9/OGJlSVWpV9oWF4VA=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="585">
   <si>
     <t>テスト回復</t>
+  </si>
+  <si>
+    <t>test recovery</t>
   </si>
   <si>
     <t>薄いミントの匂い
 精力を30％ + 200回復する</t>
   </si>
   <si>
+    <t>Smells lightly of mint.
+Restores 30% + 200 vigor.</t>
+  </si>
+  <si>
     <t>テスト体力回復</t>
+  </si>
+  <si>
+    <t>Test physical recovery</t>
   </si>
   <si>
     <t>薄いオレンジの味
 体力を30％ + 20回復する</t>
   </si>
   <si>
+    <t>Tastes lightly of orange.
+Restores 30% + 20 of your physical strength.</t>
+  </si>
+  <si>
     <t>ディスペルハーブ</t>
   </si>
   <si>
+    <t>Dispelling Herb</t>
+  </si>
+  <si>
     <t>2000ダメージ薬</t>
+  </si>
+  <si>
+    <t>2000 Damage Drug</t>
   </si>
   <si>
     <t>使用すると2000分気持ちよくなるお薬
 2000ダメージ与える</t>
   </si>
   <si>
+    <t>A drug that makes you feel good for 2000 minutes when used.
+It deals 2000 damage.</t>
+  </si>
+  <si>
     <t>4000ダメージ薬</t>
+  </si>
+  <si>
+    <t>4000 Damage Drug</t>
   </si>
   <si>
     <t>使用すると4000分気持ちよくなるお薬
 4000ダメージ与える</t>
   </si>
   <si>
+    <t>A drug that makes you feel good for 4000 minutes when used.
+It deals 4000 damage.</t>
+  </si>
+  <si>
     <t>8000ダメージ薬</t>
+  </si>
+  <si>
+    <t>8000 Damage Drug</t>
   </si>
   <si>
     <t>使用すると8000分気持ちよくなるお薬
 8000ダメージ与える</t>
   </si>
   <si>
+    <t>A drug that makes you feel good for 8,000 minutes when used.
+It deals 8000 damage.</t>
+  </si>
+  <si>
     <t>敵4000回復薬</t>
+  </si>
+  <si>
+    <t>Enemy 4000 recovery Pill</t>
   </si>
   <si>
     <t>使用すると4000分すっきりするお薬
 相手が4000回復する</t>
   </si>
   <si>
+    <t>A medicine that, when used, is refreshing for 4000 minutes.
+The other party will be healed for 4000 health.</t>
+  </si>
+  <si>
     <t>テスト毒薬</t>
   </si>
   <si>
+    <t>test drug</t>
+  </si>
+  <si>
     <t>敵用催淫毒をかける</t>
   </si>
   <si>
+    <t>Apply Enemy Aphrosdisiac Poison</t>
+  </si>
+  <si>
     <t>900000ダメージ薬</t>
+  </si>
+  <si>
+    <t>900,000 Damage Drug</t>
   </si>
   <si>
     <t>使用すると900000分気持ちよくなるお薬
 900000ダメージ与える</t>
   </si>
   <si>
+    <t>A medicine that makes you feel good for 90,0000 minutes when used.
+It deals 90,0000 damage.</t>
+  </si>
+  <si>
     <t>～回復アイテム～</t>
   </si>
   <si>
+    <t>~Recovery Items~</t>
+  </si>
+  <si>
     <t>精力剤</t>
+  </si>
+  <si>
+    <t>Tonic</t>
   </si>
   <si>
     <t>薄いミントの匂い
 精力30％+200回復</t>
   </si>
   <si>
+    <t>Smells lightly of mint.
+Restores 30% + 200 points of vitality.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I71*1&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -92,10 +161,17 @@
     <t>精力剤α</t>
   </si>
   <si>
+    <t>Energizer α</t>
+  </si>
+  <si>
     <t>ミントの匂い
 精力50％+200回復</t>
   </si>
   <si>
+    <t>Smells like mint.
+Restores 50% + 200 points of vitality.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I71*2&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -103,10 +179,17 @@
     <t>精力剤β</t>
   </si>
   <si>
+    <t>Energizer β</t>
+  </si>
+  <si>
     <t>濃いミントの匂い
 精力70％+200回復</t>
   </si>
   <si>
+    <t>Smells strongly of mint.
+Restores 70% +200 points of vitality.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I71*3&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -114,8 +197,15 @@
     <t>精力剤γ</t>
   </si>
   <si>
+    <t>Energizer γ</t>
+  </si>
+  <si>
     <t>ミントよりミントの匂い
 精力全回復</t>
+  </si>
+  <si>
+    <t>Smells even mintier than mint.
+Fully restores vitality.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*3&gt;
@@ -126,10 +216,17 @@
     <t>体力回復薬</t>
   </si>
   <si>
+    <t>Restorative</t>
+  </si>
+  <si>
     <t>薄いオレンジの味
 体力30％+5回復</t>
   </si>
   <si>
+    <t>Tastes mildly like oranges.
+Restores 30% +5 of strength.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I72*1&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -137,10 +234,17 @@
     <t>体力回復薬α</t>
   </si>
   <si>
+    <t>Restorative α</t>
+  </si>
+  <si>
     <t>オレンジの味
 体力50％+5回復</t>
   </si>
   <si>
+    <t>Tastes like oranges.
+Restores 50% +5 of strength.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I72*2&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -148,10 +252,17 @@
     <t>体力回復薬β</t>
   </si>
   <si>
+    <t>Restorative β</t>
+  </si>
+  <si>
     <t>濃いオレンジの味
 体力70％回復</t>
   </si>
   <si>
+    <t>Tastes strongly of oranges.
+Restores 70% of strength.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I72*3&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -159,8 +270,15 @@
     <t>体力回復薬γ</t>
   </si>
   <si>
+    <t>Restorative γ</t>
+  </si>
+  <si>
     <t>わざとらしいオレンジの味
 体力全回復</t>
+  </si>
+  <si>
+    <t>Overwhelmingly orange flavored.
+Fully restores strength.</t>
   </si>
   <si>
     <t>&lt;mat1:I72*3&gt;
@@ -171,8 +289,15 @@
     <t>薬草ジュース</t>
   </si>
   <si>
+    <t>Herbal Juice</t>
+  </si>
+  <si>
     <t>薬草をすり潰して飲みやすく味付けしたもの
 精力体力30％回復</t>
+  </si>
+  <si>
+    <t>Ground and flavored medicinal herbs which are easy to drink.
+Restores 30% vitality and strength.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*1&gt;
@@ -183,8 +308,15 @@
     <t>ポーション</t>
   </si>
   <si>
+    <t>Potion</t>
+  </si>
+  <si>
     <t>心身ともに元気になる冒険の友
 精力体力50％回復</t>
+  </si>
+  <si>
+    <t>An adventurer's best friend which energizes both body and soul.
+Restores 50% vitality and strength.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*2&gt;
@@ -195,8 +327,15 @@
     <t>エーテル</t>
   </si>
   <si>
+    <t>Ether</t>
+  </si>
+  <si>
     <t>大気中の魔力を凝縮し液状化したしずく
 精力体力70％回復</t>
+  </si>
+  <si>
+    <t>Ambient magic which has been condensed into liquid form.
+70% recovery of vitality and strength.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*3&gt;
@@ -208,8 +347,15 @@
     <t>エリクサー</t>
   </si>
   <si>
+    <t>Elixer</t>
+  </si>
+  <si>
     <t>製法が確立していない錬金の産物
 精力体力全回復　TP増加特大</t>
+  </si>
+  <si>
+    <t>An alchemical product created through unknown means.
+Full recovery of vitality and strength, and a large increase to TP</t>
   </si>
   <si>
     <t>&lt;mat1:I71*3&gt;
@@ -221,10 +367,17 @@
     <t>興奮剤</t>
   </si>
   <si>
+    <t>Stimulant</t>
+  </si>
+  <si>
     <t>アドレナリンが大量に出る薬
 TP増加大</t>
   </si>
   <si>
+    <t>A drug which produces copius amounts of adrenaline.
+Large increase to TP</t>
+  </si>
+  <si>
     <t>&lt;mat1:I73*1&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -232,10 +385,17 @@
     <t>覚醒薬</t>
   </si>
   <si>
+    <t>Psychoactive drug</t>
+  </si>
+  <si>
     <t>ギリギリ合法なお薬
 TP増加特大</t>
   </si>
   <si>
+    <t>Medicine which is barely even legal.
+Extra large increase to TP</t>
+  </si>
+  <si>
     <t>&lt;mat1:I73*2&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -243,22 +403,43 @@
     <t>攻撃の薬</t>
   </si>
   <si>
+    <t>Combat Potion</t>
+  </si>
+  <si>
     <t>攻撃力と技巧が一時的にアップする薬
 攻撃力UP　技巧UP　TP増加小</t>
   </si>
   <si>
+    <t>A potion that temporarily increases attack power and technique.
+Attack power UP, Technique UP, small increase to TP</t>
+  </si>
+  <si>
     <t>防御の薬</t>
+  </si>
+  <si>
+    <t>Safeguard Potion</t>
   </si>
   <si>
     <t>防御力と精神力が一時的にアップする薬
 防御力UP　精神力UP　TP増加小</t>
   </si>
   <si>
+    <t>A potion that temporarily increases defense and mental strength.
+Defensive power up, Mental power up, small increase to TP.</t>
+  </si>
+  <si>
     <t>耐久の薬</t>
+  </si>
+  <si>
+    <t>Steroid</t>
   </si>
   <si>
     <t>最大精力が一時的にアップする薬
 最大精力UP(重ね掛け可)　TP増加小</t>
+  </si>
+  <si>
+    <t>A medicine that temporarily increases maximum vigor.
+Maximum vigor up (can be stacked), small increase to TP.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*2&gt;
@@ -269,8 +450,15 @@
     <t>最後の切り札</t>
   </si>
   <si>
+    <t>Trump Card</t>
+  </si>
+  <si>
     <t>運命を捻じ曲げる力を持ったカード
 精力体力全回復　全能力UP</t>
+  </si>
+  <si>
+    <t>A card with the power to twist fate.
+Full restoration of vigor and strength, and all abilities UP.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*5&gt;
@@ -283,8 +471,15 @@
     <t>鬼神の秘薬</t>
   </si>
   <si>
+    <t xml:space="preserve">The Elixer of Life </t>
+  </si>
+  <si>
     <t>鬼の力を身体に宿す幻の秘薬
 全ステータス1.5倍（戦闘中）</t>
+  </si>
+  <si>
+    <t>A phantasmal elixir that imbues one with the power of demons.
+All stats multiplied by 1.5 (in battle).</t>
   </si>
   <si>
     <t>&lt;mat1:I71*5&gt;
@@ -297,502 +492,999 @@
     <t>シナピスの水</t>
   </si>
   <si>
+    <t>Water of Sinapis</t>
+  </si>
+  <si>
     <t>万病に効く薬
 精力体力全回復　TP増加特大</t>
   </si>
   <si>
+    <t>A panacea for all that ails.
+Restores all vitality and strength, extra large increase to TP.</t>
+  </si>
+  <si>
     <t>アトテック8</t>
+  </si>
+  <si>
+    <t>Atotech 8</t>
   </si>
   <si>
     <t>世界に期待された新薬
 精力体力50％回復　副作用有</t>
   </si>
   <si>
+    <t>The world's most anticipated new drug.
+50% recovery of energy and stamina, with side effects.</t>
+  </si>
+  <si>
     <t>強靭大人液</t>
+  </si>
+  <si>
+    <t>Tough Guy Liquid</t>
   </si>
   <si>
     <t>ぶっかけるとわからせることが出来る
 1000ダメージを与える</t>
   </si>
   <si>
+    <t>You can let them know you're going to spray it.
+It does 1,000 damage.</t>
+  </si>
+  <si>
     <t>レッドボトルコーヒー</t>
+  </si>
+  <si>
+    <t>Big Boss Coffee</t>
   </si>
   <si>
     <t>いつもの味
 TP増加特大　暗闇解除</t>
   </si>
   <si>
+    <t>Smooth and clear taste.
+Extra large increase to TP, removes darkness.</t>
+  </si>
+  <si>
     <t>点眼薬</t>
+  </si>
+  <si>
+    <t>Eye Drops</t>
   </si>
   <si>
     <t>目で飲む回復薬
 精力回復15％　状態異常を解除　暗闇になる</t>
   </si>
   <si>
+    <t>Medicine for the eyes.
+15% restoration of vigor, removes status quo and darkness.</t>
+  </si>
+  <si>
     <t>栄養ドリンク</t>
+  </si>
+  <si>
+    <t>Yonker Energy Drink</t>
   </si>
   <si>
     <t>栄養を補給し体力を回復する
 体力20回復　脱力解除</t>
   </si>
   <si>
+    <t>Nourishes the body and restores strength.
+Restores 20 physical strength, and removes weakness.</t>
+  </si>
+  <si>
     <t>アンプル</t>
+  </si>
+  <si>
+    <t>Ampoule</t>
   </si>
   <si>
     <t>痛みを鎮静化させ体力を全回復する
 体力全回復　脱力解除</t>
   </si>
   <si>
+    <t>Sedates pain and restores one to full strength.
+Full restoration of physical strength and removes weakness.</t>
+  </si>
+  <si>
     <t>漢方薬</t>
+  </si>
+  <si>
+    <t>Chinese herbal medicine</t>
   </si>
   <si>
     <t>植物の根っこを粉にしたもの
 魔物戦の状態異常解除</t>
   </si>
   <si>
+    <t>Powdered plant roots.
+Removes ___ condition</t>
+  </si>
+  <si>
     <t>クマリ</t>
+  </si>
+  <si>
+    <t>Kumari</t>
   </si>
   <si>
     <t>遠慮するな！気付け薬が仕込んである！さぁ、殴れ！
 精力500回復　発情解除　消費無し</t>
   </si>
   <si>
+    <t>Don't be shy! I've got a smelling salve in there! Come on, hit me!
+500 energy recovery, removes excitement, removes prey.</t>
+  </si>
+  <si>
     <t>マクルード</t>
+  </si>
+  <si>
+    <t>Macleod</t>
   </si>
   <si>
     <t>デイツ餡のあまーいお菓子
 体力5回復</t>
   </si>
   <si>
+    <t>Sweet pastry made with date bean paste.
+Recovers 5 strength</t>
+  </si>
+  <si>
     <t>フェイゾンフレーク</t>
+  </si>
+  <si>
+    <t>Phason Flake</t>
   </si>
   <si>
     <t>高純度の液状フェイゾンをフリーズドライで凝固した栄養食品
 全能力UP TP増加大</t>
   </si>
   <si>
+    <t>Nutritional food made from freeze-dried coagulated high-purity liquid phason.
+All capacities UP, Large increase to TP</t>
+  </si>
+  <si>
     <t>キュケオン</t>
+  </si>
+  <si>
+    <t>Kykeon</t>
   </si>
   <si>
     <t>水と大麦とペニーロイヤルミントを使った飲み物
 攻撃力UP　技巧UP　最大精力UP</t>
   </si>
   <si>
+    <t>An ancient Greek drink made with water, barley and pennyroyal mint.
+Attack power up, technique up, maximum vigor up.</t>
+  </si>
+  <si>
     <t>精力増強剤</t>
+  </si>
+  <si>
+    <t>Energy Booster</t>
   </si>
   <si>
     <t>一時的に精力の最大値を増やす薬　マカ配合
 精力20％回復 最大精力UP（8ターン 600歩）</t>
   </si>
   <si>
+    <t>Pill to temporarily increase maximum vigor, containing Maca.
+20% recovery of vigor, Maximum vigor increase (8 turns, 600 steps)</t>
+  </si>
+  <si>
     <t>ネクター</t>
+  </si>
+  <si>
+    <t>Ambrosia</t>
   </si>
   <si>
     <t>神が好むとされる桃ジュース
 防御力UP　精神力UP　最大精力UP</t>
   </si>
   <si>
+    <t>Peach juice, said to be favored by the gods.
+Defenses UP, mental strength UP, maximum vigor UP.</t>
+  </si>
+  <si>
     <t>～ドーピングアイテム～</t>
   </si>
   <si>
+    <t>~Skill Increase items~</t>
+  </si>
+  <si>
     <t>アタクの実</t>
+  </si>
+  <si>
+    <t>Attack Berry</t>
   </si>
   <si>
     <t>食べるとグイグイいきたい気持ちになる木の実
 攻撃力+1(永続)</t>
   </si>
   <si>
+    <t>A berry that makes you want to go gushy when you eat it.
+Attack +1 (permanent).</t>
+  </si>
+  <si>
     <t>デフの実</t>
+  </si>
+  <si>
+    <t>Defense Berry</t>
   </si>
   <si>
     <t>食べると皮膚が少し硬くなる木の実
 防御力+1(永続)</t>
   </si>
   <si>
+    <t>A berry that hardens the skin slightly when eaten.
+Defense +1 (permanent).</t>
+  </si>
+  <si>
     <t>テクニの実</t>
+  </si>
+  <si>
+    <t>Technicolor Berry</t>
   </si>
   <si>
     <t>食べると手先が器用になる木の実
 技巧+1(永続)</t>
   </si>
   <si>
+    <t>A berry that makes you more dexterous when eaten.
+Skill +1 (permanent).</t>
+  </si>
+  <si>
     <t>マインの実</t>
+  </si>
+  <si>
+    <t>Mind Berry</t>
   </si>
   <si>
     <t>食べると精神的に強くなる木の実
 精神力+1(永続)</t>
   </si>
   <si>
+    <t>A berry that makes you mentally strong when you eat it.
+Mental strength +1 (permanent).</t>
+  </si>
+  <si>
     <t>アジリの実</t>
+  </si>
+  <si>
+    <t>Agility Berry</t>
   </si>
   <si>
     <t>食べると瞬発力が良くなる木の実
 敏捷性+1(永続)</t>
   </si>
   <si>
+    <t>A berry that improves your speed when you eat it.
+Agility +1 (permanent).</t>
+  </si>
+  <si>
     <t>デストの実</t>
+  </si>
+  <si>
+    <t>Destro Berry</t>
   </si>
   <si>
     <t>食べると破壊衝動が増す木の実
 戦闘力+1(永続)</t>
   </si>
   <si>
+    <t>A nut that increases the urge to destroy when eaten.
+Combat +1 (permanent).</t>
+  </si>
+  <si>
     <t>エネルの実</t>
+  </si>
+  <si>
+    <t>Energy Berry</t>
   </si>
   <si>
     <t>食べると精が付く木の実
 最大精力+20(永続)</t>
   </si>
   <si>
+    <t>Fruit that energizes when eaten.
+Maximum vigor +20 (permanent)</t>
+  </si>
+  <si>
     <t>マスルの実</t>
+  </si>
+  <si>
+    <t>Muscle Berry</t>
   </si>
   <si>
     <t>食べると筋肉が付きやすくなる木の実
 最大体力+5(永続)</t>
   </si>
   <si>
+    <t>Berry that make it easier to gain muscle mass when eaten.
+Maximum strength +5 (permanent).</t>
+  </si>
+  <si>
     <t>～素材系アイテム～</t>
   </si>
   <si>
+    <t>~Material Items~</t>
+  </si>
+  <si>
     <t>精力草</t>
+  </si>
+  <si>
+    <t>Herb</t>
   </si>
   <si>
     <t>食べると精が付く草
 素材</t>
   </si>
   <si>
+    <t>Herb that perks you up when eaten.
+Material.</t>
+  </si>
+  <si>
     <t>体力草</t>
+  </si>
+  <si>
+    <t>Physical strength herb</t>
   </si>
   <si>
     <t>健康にいい成分が含まれている草
 素材</t>
   </si>
   <si>
+    <t>Nutritious herbs.
+Materials.</t>
+  </si>
+  <si>
     <t>強化草</t>
+  </si>
+  <si>
+    <t>Reinforcing herb</t>
   </si>
   <si>
     <t>混ぜると効果を強める力のある草
 素材</t>
   </si>
   <si>
+    <t>Herbs that intensify their effects when mixed with other items.
+Material.</t>
+  </si>
+  <si>
     <t>幸福草</t>
+  </si>
+  <si>
+    <t>Lucky Herb</t>
   </si>
   <si>
     <t>人の幸せを吸って成長する草
 素材</t>
   </si>
   <si>
+    <t>Herb that grows by sucking in the happiness of others.
+Material.</t>
+  </si>
+  <si>
     <t>鉄鉱石</t>
+  </si>
+  <si>
+    <t>Iron Ore</t>
   </si>
   <si>
     <t>鉄を多く含んだ鉱石
 素材</t>
   </si>
   <si>
+    <t>Iron-rich ore.
+Material.</t>
+  </si>
+  <si>
     <t>金鉱石</t>
+  </si>
+  <si>
+    <t>Gold Ore</t>
   </si>
   <si>
     <t>金を多く含んだ鉱石
 素材</t>
   </si>
   <si>
+    <t>Gold-rich ore.
+Material.</t>
+  </si>
+  <si>
     <t>ルビー</t>
+  </si>
+  <si>
+    <t>Ruby</t>
   </si>
   <si>
     <t>燃える炎のような赤みを持つ宝石
 素材</t>
   </si>
   <si>
+    <t>A gemstone with a reddish hue like a burning flame.
+Material.</t>
+  </si>
+  <si>
     <t>アクアマリン</t>
+  </si>
+  <si>
+    <t>Aquamarine</t>
   </si>
   <si>
     <t>静かな海のような青さを持つ宝石
 素材</t>
   </si>
   <si>
+    <t>A gemstone as blue as the calm sea.
+Material.</t>
+  </si>
+  <si>
     <t>エメラルド</t>
+  </si>
+  <si>
+    <t>Emerald</t>
   </si>
   <si>
     <t>葉を揺らす風のような緑色の宝石
 素材</t>
   </si>
   <si>
+    <t>A green gem like the wind shaking the leaves.
+Material.</t>
+  </si>
+  <si>
     <t>ダイヤモンド</t>
+  </si>
+  <si>
+    <t>Diamond</t>
   </si>
   <si>
     <t>大地を強く踏みしめた時に生まれる宝石
 素材</t>
   </si>
   <si>
+    <t>Jewelry created when you step hard on the earth.
+Material.</t>
+  </si>
+  <si>
     <t>淫石</t>
+  </si>
+  <si>
+    <t>Lust Stone</t>
   </si>
   <si>
     <t>淫魔の魔力に反応して怪しく光る宝石
 素材</t>
   </si>
   <si>
+    <t>A jewel that glows suspiciously in response to the magic of a succubus.
+Material.</t>
+  </si>
+  <si>
     <t>魔獣の牙</t>
+  </si>
+  <si>
+    <t>Fangs of the Hexenbeast</t>
   </si>
   <si>
     <t>人や動物を美味しく頂くための歯
 素材</t>
   </si>
   <si>
+    <t>Fangs used to feast upon both animals and people.
+Material.</t>
+  </si>
+  <si>
     <t>魔族の角</t>
+  </si>
+  <si>
+    <t>Devil Horns</t>
   </si>
   <si>
     <t>見た者に恐怖を植え付けるための角
 素材</t>
   </si>
   <si>
+    <t>Horns which instill fear in the beholder.
+Material.</t>
+  </si>
+  <si>
     <t>木材</t>
+  </si>
+  <si>
+    <t>Wood</t>
   </si>
   <si>
     <t>いい感じに硬く乾燥した木
 素材</t>
   </si>
   <si>
+    <t>Good quality, hard, dry wood.
+Material.</t>
+  </si>
+  <si>
     <t>風切りの羽</t>
+  </si>
+  <si>
+    <t>Feathers of Flight</t>
   </si>
   <si>
     <t>風の魔力を微かに感じる軽い羽
 素材</t>
   </si>
   <si>
+    <t>Lightweight feathers with a hint of wind magic.
+Material.</t>
+  </si>
+  <si>
     <t>蜘蛛の糸玉</t>
+  </si>
+  <si>
+    <t>Spider silk thread</t>
   </si>
   <si>
     <t>編み物が得意な手芸蜘蛛の丈夫な糸
 素材</t>
   </si>
   <si>
+    <t>Sturdy yarn from a handicraft spider that is good for knitting.
+Material.</t>
+  </si>
+  <si>
     <t>つやうろこ</t>
+  </si>
+  <si>
+    <t>Glistening scale</t>
   </si>
   <si>
     <t>独特の光沢があるうろこ
 素材</t>
   </si>
   <si>
+    <t>Unique shiny scaly
+Material.</t>
+  </si>
+  <si>
     <t>もこもこ</t>
+  </si>
+  <si>
+    <t>Mokomoko</t>
   </si>
   <si>
     <t>もこもこふわふわした何か
 素材</t>
   </si>
   <si>
+    <t>Something fluffy and fuzzy.
+Material.</t>
+  </si>
+  <si>
     <t>ふさ毛皮</t>
+  </si>
+  <si>
+    <t>Tufted Fur</t>
   </si>
   <si>
     <t>触り心地のいいふさふさな毛皮
 素材</t>
   </si>
   <si>
+    <t>Comfortable and bushy fur.
+material</t>
+  </si>
+  <si>
     <t>パピルス</t>
+  </si>
+  <si>
+    <t>Papyrus</t>
   </si>
   <si>
     <t>謎の言語が書かれたとても丈夫なスクロール
 素材</t>
   </si>
   <si>
+    <t>A very sturdy scroll with a mysterious language written on it.
+Material.</t>
+  </si>
+  <si>
     <t>グルーパウダー</t>
+  </si>
+  <si>
+    <t>Powdered Glue</t>
   </si>
   <si>
     <t>水を混ぜると引っ付いて取れなくなる粉
 素材</t>
   </si>
   <si>
+    <t>Powder that sticks permanently when mixed with water.
+Material.</t>
+  </si>
+  <si>
     <t>サンゴ</t>
+  </si>
+  <si>
+    <t>Coral</t>
   </si>
   <si>
     <t>植物のような石のような動物
 素材</t>
   </si>
   <si>
+    <t>A plant-like, stone-like animal.
+Material.</t>
+  </si>
+  <si>
     <t>ペレット</t>
+  </si>
+  <si>
+    <t>Pellet</t>
   </si>
   <si>
     <t>猛禽類などが吐き出した謎の塊
 素材</t>
   </si>
   <si>
+    <t>Mysterious lumps of fur spat out by birds of prey
+Material.</t>
+  </si>
+  <si>
     <t>捕光石</t>
+  </si>
+  <si>
+    <t>Light-catching stones</t>
   </si>
   <si>
     <t>光を閉じ込める性質がある石　割ると光る
 素材</t>
   </si>
   <si>
+    <t>A stone that traps light and glows when broken.
+Material.</t>
+  </si>
+  <si>
     <t>燃料貝</t>
+  </si>
+  <si>
+    <t>Fuel Cockle</t>
   </si>
   <si>
     <t>砕くと激しく燃える貝殻
 素材</t>
   </si>
   <si>
+    <t>A shell that burns fiercely when crushed.
+Material.</t>
+  </si>
+  <si>
     <t>六魂石</t>
+  </si>
+  <si>
+    <t>Six-spirit Stone</t>
   </si>
   <si>
     <t>魔物の胃の中で6人分の命が圧縮された塊
 素材</t>
   </si>
   <si>
+    <t>A mass of six lives compressed in the stomach of a demon.
+Material.</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 素材</t>
   </si>
   <si>
+    <t>~Materials~</t>
+  </si>
+  <si>
     <t>心の結晶</t>
+  </si>
+  <si>
+    <t>Piece of mind</t>
   </si>
   <si>
     <t>人属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized magic of the human attribute.
+Material.</t>
+  </si>
+  <si>
     <t>悪の結晶</t>
+  </si>
+  <si>
+    <t>Crystal of evil</t>
   </si>
   <si>
     <t>悪属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized evil magic.
+Material.</t>
+  </si>
+  <si>
     <t>獣の結晶</t>
+  </si>
+  <si>
+    <t>Beast Crystal</t>
   </si>
   <si>
     <t>獣属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized beastly magic.
+Material.</t>
+  </si>
+  <si>
     <t>水の結晶</t>
+  </si>
+  <si>
+    <t>Water Crystal</t>
   </si>
   <si>
     <t>水属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized water-based magic
+Material.</t>
+  </si>
+  <si>
     <t>風の結晶</t>
+  </si>
+  <si>
+    <t>Wind Crystal</t>
   </si>
   <si>
     <t>風属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized wind magic.
+Material.</t>
+  </si>
+  <si>
     <t>虫の結晶</t>
+  </si>
+  <si>
+    <t>Insect Crystal</t>
   </si>
   <si>
     <t>虫属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized magic of the insect attribute.
+Material.</t>
+  </si>
+  <si>
     <t>草の結晶</t>
+  </si>
+  <si>
+    <t>Grass Crystal</t>
   </si>
   <si>
     <t>草属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized magic of the grass attribute.
+Material.</t>
+  </si>
+  <si>
     <t>機械の部品</t>
+  </si>
+  <si>
+    <t>Machine parts</t>
   </si>
   <si>
     <t>ポロっととれた何かのパーツ
 素材</t>
   </si>
   <si>
+    <t>Parts that came off of some machine
+Material.</t>
+  </si>
+  <si>
     <t>ロープ</t>
+  </si>
+  <si>
+    <t>Rope</t>
   </si>
   <si>
     <t xml:space="preserve">丈夫なロープ
 </t>
   </si>
   <si>
+    <t>A sturdy length of rope</t>
+  </si>
+  <si>
     <t>尖ったもの</t>
+  </si>
+  <si>
+    <t>Sharp thing</t>
   </si>
   <si>
     <t xml:space="preserve">鋭く尖った槍の先っぽ
 </t>
   </si>
   <si>
+    <t>The sharp point of a spear</t>
+  </si>
+  <si>
     <t>棒</t>
+  </si>
+  <si>
+    <t>Stick</t>
   </si>
   <si>
     <t xml:space="preserve">ただの木の棒
 </t>
   </si>
   <si>
+    <t>Just a plain wooden stick</t>
+  </si>
+  <si>
     <t>重くて硬いもの</t>
   </si>
   <si>
+    <t>Heavy, hard object</t>
+  </si>
+  <si>
     <t>重くて硬い金属のインゴット</t>
   </si>
   <si>
+    <t>A heavy, hard metal ingot</t>
+  </si>
+  <si>
     <t>またたび</t>
   </si>
   <si>
+    <t>Life of the Wanderer</t>
+  </si>
+  <si>
     <t>猫を狂わせる魔法の粉</t>
   </si>
   <si>
+    <t>Magic powder that drives cats crazy</t>
+  </si>
+  <si>
     <t>金目のもの</t>
+  </si>
+  <si>
+    <t>Valuable</t>
   </si>
   <si>
     <t>使えない癖に価値のありそうな何か
 換金アイテム</t>
   </si>
   <si>
+    <t>Something that is unusable, but valuable.
+Cash item.</t>
+  </si>
+  <si>
     <t>もっと金目のもの</t>
+  </si>
+  <si>
+    <t>Glittering item</t>
   </si>
   <si>
     <t>とりあえずよく光を反射するキラキラした何か
 換金アイテム</t>
   </si>
   <si>
+    <t>Something sparkly that reflects light.
+Redemption item.</t>
+  </si>
+  <si>
     <t>かなり金目のもの</t>
+  </si>
+  <si>
+    <t>Quite a Goldmine</t>
   </si>
   <si>
     <t>高級感はあるが置く以外に用途の無い何か
 換金アイテム</t>
   </si>
   <si>
+    <t>Something that looks luxurious but has no use other than showing off
+Cash item.</t>
+  </si>
+  <si>
     <t>素晴らしく金目のもの</t>
+  </si>
+  <si>
+    <t>Wonderful Golden Gewgaw</t>
   </si>
   <si>
     <t>お金持ちがお金持ちアピールする為の何か
 換金アイテム</t>
   </si>
   <si>
+    <t>Something for the rich to show off their riches.
+Redemption item.</t>
+  </si>
+  <si>
     <t>圧倒的に金目のもの</t>
+  </si>
+  <si>
+    <t>Extremely expensive item</t>
   </si>
   <si>
     <t>素手で触ることに罪悪感を覚えるほどの何か
 換金アイテム</t>
   </si>
   <si>
+    <t>Something that I would feel guilty about touching with my bare hands.
+A cash item.</t>
+  </si>
+  <si>
     <t>菓子折り</t>
+  </si>
+  <si>
+    <t>Box of Cakes</t>
   </si>
   <si>
     <t>この世界の甘さをギュッと箱に詰めたもの
 正気度3回復</t>
   </si>
   <si>
+    <t>A box full of the sweetness of this world.
+Restores 3 levels of Sanity.</t>
+  </si>
+  <si>
     <t>お菓子</t>
+  </si>
+  <si>
+    <t>Sweets</t>
   </si>
   <si>
     <t>兄妹で励まし合いながら食べると元気が出るはず
 正気度1回復</t>
   </si>
   <si>
+    <t>It should cheer you up to share it with your sibling.
+Restores 1 level of Sanity.</t>
+  </si>
+  <si>
     <t>～大切なもの～</t>
   </si>
   <si>
+    <t>~Key Items~</t>
+  </si>
+  <si>
     <t>帰還の翼</t>
+  </si>
+  <si>
+    <t>Wings of Return</t>
   </si>
   <si>
     <t>テレポートの魔力が込められた翼
 拠点に戻ることが出来る</t>
   </si>
   <si>
+    <t>Wings with the magic of teleportation.
+It allows you to return to your base.</t>
+  </si>
+  <si>
     <t>錬金道具</t>
+  </si>
+  <si>
+    <t>Alchemy Tools</t>
   </si>
   <si>
     <t>錬金術の道具一式
 どこでも錬金術が出来る</t>
+  </si>
+  <si>
+    <t>A set of alchemical tools.
+You can do alchemy anywhere.</t>
   </si>
   <si>
     <t>手鏡</t>
@@ -810,115 +1502,218 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">A mirror you can see yourself in.
+Current Sanity \v[270]. Can be used to change name and fix bugs.
+</t>
+  </si>
+  <si>
     <t>依存度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Degree of Dependence </t>
   </si>
   <si>
     <t>まだやれるか自分の顔を見つめてみる
 現在のSAN値　\v[270]</t>
   </si>
   <si>
+    <t>I'm going to look at my face and see if I can still go on.
+Current SAN value \v[270]</t>
+  </si>
+  <si>
     <t>応接室の鍵</t>
+  </si>
+  <si>
+    <t>Reception Room Key</t>
   </si>
   <si>
     <t xml:space="preserve">応接室とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Drawing Room Key</t>
+  </si>
+  <si>
     <t>食糧庫の鍵</t>
   </si>
   <si>
+    <t>Pantry Key</t>
+  </si>
+  <si>
     <t>食糧庫とタグの付いた鍵</t>
   </si>
   <si>
+    <t>Key with tag that reads "Pantry"</t>
+  </si>
+  <si>
     <t>書庫の鍵</t>
+  </si>
+  <si>
+    <t>Library Key</t>
   </si>
   <si>
     <t xml:space="preserve">書庫とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Storeroom Key</t>
+  </si>
+  <si>
     <t>倉庫の鍵</t>
+  </si>
+  <si>
+    <t>Warehouse Key</t>
   </si>
   <si>
     <t xml:space="preserve">倉庫とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Warehouse"</t>
+  </si>
+  <si>
     <t>調理場の鍵</t>
+  </si>
+  <si>
+    <t>Kitchen Key</t>
   </si>
   <si>
     <t xml:space="preserve">調理場とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Gallery Key</t>
+  </si>
+  <si>
     <t>浴場の鍵</t>
+  </si>
+  <si>
+    <t>Bathhouse Key</t>
   </si>
   <si>
     <t xml:space="preserve">浴場とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Bathhouse"</t>
+  </si>
+  <si>
     <t>バルコニーの鍵</t>
+  </si>
+  <si>
+    <t>Balcony Key</t>
   </si>
   <si>
     <t xml:space="preserve">バルコニーとタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key tagged with "Balcony"</t>
+  </si>
+  <si>
     <t>豪華な鍵</t>
+  </si>
+  <si>
+    <t>Luxurious Keys</t>
   </si>
   <si>
     <t xml:space="preserve">ずっしりと重い高価そうな鍵
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Heavy, expensive-looking keys.
+</t>
+  </si>
+  <si>
     <t>執事の鍵</t>
+  </si>
+  <si>
+    <t>Butler's Key</t>
   </si>
   <si>
     <t xml:space="preserve">執事とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Butler's room"</t>
+  </si>
+  <si>
     <t>メイドの鍵</t>
+  </si>
+  <si>
+    <t>Maid's Key</t>
   </si>
   <si>
     <t xml:space="preserve">メイドとタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Maid's room"</t>
+  </si>
+  <si>
     <t>立派な鍵</t>
   </si>
   <si>
+    <t>Fine Keys</t>
+  </si>
+  <si>
     <t>丈夫そうな太くて硬い鍵</t>
   </si>
   <si>
+    <t>Thick, hard keys which look sturdy.</t>
+  </si>
+  <si>
     <t>クマの小箱</t>
   </si>
   <si>
+    <t>The Bear's Little Box</t>
+  </si>
+  <si>
     <t>中に何か入っているようだが・・・</t>
   </si>
   <si>
+    <t>Looks like there's something inside...</t>
+  </si>
+  <si>
     <t>食堂の鍵</t>
+  </si>
+  <si>
+    <t>Cafeteria Key</t>
   </si>
   <si>
     <t xml:space="preserve">食堂とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Cafeteria"</t>
+  </si>
+  <si>
     <t>ゴミ捨て場の鍵</t>
+  </si>
+  <si>
+    <t>Garbage Key</t>
   </si>
   <si>
     <t xml:space="preserve">ゴミ捨て場とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Garbage"</t>
+  </si>
+  <si>
     <t>鉄格子の鍵</t>
+  </si>
+  <si>
+    <t>Cell Key</t>
   </si>
   <si>
     <t xml:space="preserve">地下牢の鉄格子を開く鍵
 </t>
   </si>
   <si>
+    <t>The key that opens the cells in the dungeon</t>
+  </si>
+  <si>
     <t>～夢のかけら～</t>
   </si>
   <si>
@@ -973,7 +1768,7 @@
     <t>小さなかけら</t>
   </si>
   <si>
-    <t>誰かのささいな出来事の記憶が詰まった夢のかけら
+    <t xml:space="preserve">誰かのささいな出来事の記憶が詰まった夢のかけら
 素材　</t>
   </si>
   <si>
@@ -983,7 +1778,7 @@
     <t>歪なかけら</t>
   </si>
   <si>
-    <t>誰かの歪んだ記憶が詰まった夢のかけら
+    <t xml:space="preserve">誰かの歪んだ記憶が詰まった夢のかけら
 素材　</t>
   </si>
   <si>
@@ -1018,46 +1813,91 @@
     <t>記憶：童貞</t>
   </si>
   <si>
+    <t>Memory: Virginity</t>
+  </si>
+  <si>
     <t>まだ未経験という記憶
 本番をすると喪失</t>
   </si>
   <si>
+    <t>The memory of not having experienced it yet.
+Lost when you do the real thing.</t>
+  </si>
+  <si>
     <t>～敗北の記憶～</t>
   </si>
   <si>
+    <t>~Memories of Defeat~</t>
+  </si>
+  <si>
     <t>敗北の記憶：リリー</t>
+  </si>
+  <si>
+    <t>Memories of Defeat: Lily</t>
   </si>
   <si>
     <t>リリーに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
   </si>
   <si>
+    <t>Lily's memories of defeat.
+How many you've got shows how much you've been squeezed by them</t>
+  </si>
+  <si>
     <t>敗北の記憶：シィナ</t>
+  </si>
+  <si>
+    <t>Memories of Defeat: Sina</t>
   </si>
   <si>
     <t>シィナに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
   </si>
   <si>
+    <t>Sina's memories of defeat.
+How many you've got shows how much you've been squeezed by them</t>
+  </si>
+  <si>
     <t>敗北の記憶：ライム</t>
+  </si>
+  <si>
+    <t>Memories of Defeat: Lime</t>
   </si>
   <si>
     <t>ライムに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
   </si>
   <si>
+    <t>Lime's memories of defeat.
+How many you've got shows how much you've been squeezed by them</t>
+  </si>
+  <si>
     <t>敗北の記憶：アーコ</t>
+  </si>
+  <si>
+    <t>Memories of Defeat: Arco</t>
   </si>
   <si>
     <t>アーコに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
   </si>
   <si>
+    <t>Arco's memories of defeat.
+How many you've got shows how much you've been squeezed by them</t>
+  </si>
+  <si>
     <t>敗北の記憶：ロメリア</t>
+  </si>
+  <si>
+    <t>Memories of Defeat: Romeria</t>
   </si>
   <si>
     <t>ロメリアに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
+  </si>
+  <si>
+    <t>Romeria's memories of defeat.
+How many you've got shows how much you've been squeezed by them</t>
   </si>
   <si>
     <t>敗北の記憶：シャーロット</t>
@@ -1192,17 +2032,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1210,46 +2051,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -1273,79 +2118,19 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1357,1885 +2142,3257 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="53.71"/>
+    <col customWidth="1" min="2" max="2" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="48.43"/>
+    <col customWidth="1" min="4" max="4" width="78.71"/>
+    <col customWidth="1" min="5" max="26" width="8.71"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="D22" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="D25" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="D26" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="D28" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="D29" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="D31" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="D32" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="D34" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="D35" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="D37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="D38" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="D40" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="D41" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="D43" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="D44" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="D46" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="D47" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="D49" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="D50" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="D52" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="D53" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="D55" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="D56" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="D58" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="D59" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="D61" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
+      <c r="D62" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
+      <c r="D63" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
+      <c r="D64" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
+      <c r="D65" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
+      <c r="D66" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
+      <c r="D68" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
+      <c r="D69" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
+      <c r="D71" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
+      <c r="D72" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
+      <c r="D74" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
+      <c r="D75" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
+      <c r="D76" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
+      <c r="D77" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
+      <c r="D78" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
+      <c r="D79" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
+      <c r="D80" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
+      <c r="D81" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
+      <c r="D82" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
+      <c r="D83" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
+      <c r="D84" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
+      <c r="D85" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
+      <c r="D86" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
+      <c r="D87" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
+      <c r="D88" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
+      <c r="D89" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
+      <c r="D90" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
+      <c r="D91" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
+      <c r="D92" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
+      <c r="D93" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
+      <c r="D94" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
+      <c r="D95" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
+      <c r="D96" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
+      <c r="D97" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
+      <c r="D98" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
+      <c r="D99" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
+      <c r="D100" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
+      <c r="D101" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
+      <c r="D102" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
+      <c r="D103" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
+      <c r="D104" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
+      <c r="D105" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
+      <c r="D106" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
+      <c r="D107" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
+      <c r="D108" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
+      <c r="D109" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
+      <c r="D110" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
+      <c r="D111" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
+      <c r="D112" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
+      <c r="D113" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
+      <c r="D114" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
+      <c r="D115" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
+      <c r="D116" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" t="s">
+      <c r="D117" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D118" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D119" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
+      <c r="D120" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
+      <c r="D121" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
+      <c r="D122" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
+      <c r="D123" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228" t="s">
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" t="s">
+      <c r="D124" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230" t="s">
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="s">
+      <c r="D125" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232" t="s">
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" t="s">
+      <c r="D126" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" t="s">
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" t="s">
+      <c r="D127" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
-      <c r="A236" t="s">
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="s">
+      <c r="D128" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="A238" t="s">
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" t="s">
+      <c r="D129" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
-      <c r="A240" t="s">
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" t="s">
+      <c r="D130" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242" t="s">
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" t="s">
+      <c r="D131" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
-      <c r="A244" t="s">
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" t="s">
+      <c r="D132" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
-      <c r="A246" t="s">
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" t="s">
+      <c r="D133" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248" t="s">
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" t="s">
+      <c r="D134" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
-      <c r="A250" t="s">
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" t="s">
+      <c r="D135" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
-      <c r="A252" t="s">
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" t="s">
+      <c r="D136" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
-      <c r="A254" t="s">
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" t="s">
+      <c r="D137" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
-      <c r="A256" t="s">
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" t="s">
+      <c r="D138" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
-      <c r="A258" t="s">
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" t="s">
+      <c r="D139" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
-      <c r="A260" t="s">
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" t="s">
+      <c r="D140" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="s">
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
+      <c r="D141" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" t="s">
+      <c r="D142" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
-      <c r="A266" t="s">
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" t="s">
+      <c r="D143" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
-      <c r="A268" t="s">
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" t="s">
+      <c r="D144" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
-      <c r="A270" t="s">
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" t="s">
+      <c r="D145" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
-      <c r="A272" t="s">
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" t="s">
+      <c r="D146" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
-      <c r="A274" t="s">
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" t="s">
+      <c r="D147" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
-      <c r="A276" t="s">
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" t="s">
+      <c r="D148" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
-      <c r="A278" t="s">
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" t="s">
+      <c r="D149" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
-      <c r="A280" t="s">
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" t="s">
+      <c r="D150" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
-      <c r="A282" t="s">
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" t="s">
+      <c r="D151" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
-      <c r="A284" t="s">
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" t="s">
+      <c r="D152" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
-      <c r="A286" t="s">
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" t="s">
+      <c r="D153" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
-      <c r="A288" t="s">
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" t="s">
+      <c r="D154" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
-      <c r="A290" t="s">
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="A155" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" t="s">
+      <c r="D155" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
-      <c r="A292" t="s">
+    <row r="156" ht="14.25" customHeight="1">
+      <c r="A156" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" t="s">
+      <c r="D156" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
-      <c r="A294" t="s">
+    <row r="157" ht="14.25" customHeight="1">
+      <c r="A157" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" t="s">
+      <c r="D157" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
-      <c r="A296" t="s">
+    <row r="158" ht="14.25" customHeight="1">
+      <c r="A158" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" t="s">
+      <c r="D158" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
-      <c r="A298" t="s">
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="A159" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299" t="s">
+      <c r="D159" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
-      <c r="A300" t="s">
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="A160" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" t="s">
+      <c r="D160" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
-      <c r="A302" t="s">
+    <row r="161" ht="14.25" customHeight="1">
+      <c r="A161" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" t="s">
+      <c r="D161" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
-      <c r="A304" t="s">
+    <row r="162" ht="14.25" customHeight="1">
+      <c r="A162" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="305" spans="1:3">
-      <c r="A305" t="s">
+      <c r="D162" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
-      <c r="A306" t="s">
+    <row r="163" ht="14.25" customHeight="1">
+      <c r="A163" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" t="s">
+      <c r="D163" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
-      <c r="A308" t="s">
+    <row r="164" ht="14.25" customHeight="1">
+      <c r="A164" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309" t="s">
+      <c r="D164" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
-      <c r="A310" t="s">
+    <row r="165" ht="14.25" customHeight="1">
+      <c r="A165" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="A311" t="s">
+      <c r="D165" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
-      <c r="A312" t="s">
+    <row r="166" ht="14.25" customHeight="1">
+      <c r="A166" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313" t="s">
+      <c r="D166" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
-      <c r="A314" t="s">
+    <row r="167" ht="14.25" customHeight="1">
+      <c r="A167" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315" t="s">
+      <c r="D167" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
-      <c r="A316" t="s">
+    <row r="168" ht="14.25" customHeight="1">
+      <c r="A168" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" t="s">
+      <c r="D168" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
-      <c r="A318" t="s">
+    <row r="169" ht="14.25" customHeight="1">
+      <c r="A169" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319" t="s">
+      <c r="D169" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
-      <c r="A320" t="s">
+    <row r="170" ht="14.25" customHeight="1">
+      <c r="A170" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" t="s">
+      <c r="D170" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
-      <c r="A322" t="s">
+    <row r="171" ht="14.25" customHeight="1">
+      <c r="A171" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="323" spans="1:3">
-      <c r="A323" t="s">
+      <c r="D171" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
-      <c r="A324" t="s">
+    <row r="172" ht="14.25" customHeight="1">
+      <c r="A172" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="A325" t="s">
+      <c r="D172" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
-      <c r="A326" t="s">
+    <row r="173" ht="14.25" customHeight="1">
+      <c r="A173" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="A327" t="s">
+      <c r="D173" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
-      <c r="A328" t="s">
+    <row r="174" ht="14.25" customHeight="1">
+      <c r="A174" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" t="s">
+      <c r="D174" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
-      <c r="A330" t="s">
+    <row r="175" ht="14.25" customHeight="1">
+      <c r="A175" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="331" spans="1:3">
-      <c r="A331" t="s">
+      <c r="D175" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="A332" t="s">
+    <row r="176" ht="14.25" customHeight="1">
+      <c r="A176" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" t="s">
+      <c r="D176" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
-      <c r="A334" t="s">
+    <row r="177" ht="14.25" customHeight="1">
+      <c r="A177" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="A335" t="s">
+      <c r="D177" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
-      <c r="A336" t="s">
+    <row r="178" ht="14.25" customHeight="1">
+      <c r="A178" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337" t="s">
+      <c r="D178" s="2" t="s">
         <v>338</v>
       </c>
     </row>
+    <row r="179" ht="14.25" customHeight="1">
+      <c r="A179" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="180" ht="14.25" customHeight="1">
+      <c r="A180" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="181" ht="14.25" customHeight="1">
+      <c r="A181" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="182" ht="14.25" customHeight="1">
+      <c r="A182" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="183" ht="14.25" customHeight="1">
+      <c r="A183" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="184" ht="14.25" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="185" ht="14.25" customHeight="1">
+      <c r="A185" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="186" ht="14.25" customHeight="1">
+      <c r="A186" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="187" ht="14.25" customHeight="1">
+      <c r="A187" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="188" ht="14.25" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="189" ht="14.25" customHeight="1">
+      <c r="A189" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="190" ht="14.25" customHeight="1">
+      <c r="A190" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="191" ht="14.25" customHeight="1">
+      <c r="A191" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="192" ht="14.25" customHeight="1">
+      <c r="A192" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="193" ht="14.25" customHeight="1">
+      <c r="A193" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="194" ht="14.25" customHeight="1">
+      <c r="A194" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="195" ht="14.25" customHeight="1">
+      <c r="A195" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="196" ht="14.25" customHeight="1">
+      <c r="A196" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="197" ht="14.25" customHeight="1">
+      <c r="A197" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="198" ht="14.25" customHeight="1">
+      <c r="A198" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="199" ht="14.25" customHeight="1">
+      <c r="A199" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="200" ht="14.25" customHeight="1">
+      <c r="A200" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="201" ht="14.25" customHeight="1">
+      <c r="A201" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="202" ht="14.25" customHeight="1">
+      <c r="A202" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="203" ht="14.25" customHeight="1">
+      <c r="A203" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="204" ht="14.25" customHeight="1">
+      <c r="A204" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="205" ht="14.25" customHeight="1">
+      <c r="A205" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="206" ht="14.25" customHeight="1">
+      <c r="A206" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="207" ht="14.25" customHeight="1">
+      <c r="A207" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="208" ht="14.25" customHeight="1">
+      <c r="A208" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="209" ht="14.25" customHeight="1">
+      <c r="A209" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="210" ht="14.25" customHeight="1">
+      <c r="A210" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="211" ht="14.25" customHeight="1">
+      <c r="A211" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="212" ht="14.25" customHeight="1">
+      <c r="A212" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="213" ht="14.25" customHeight="1">
+      <c r="A213" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="214" ht="14.25" customHeight="1">
+      <c r="A214" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="215" ht="14.25" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="216" ht="14.25" customHeight="1">
+      <c r="A216" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="217" ht="14.25" customHeight="1">
+      <c r="A217" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="218" ht="14.25" customHeight="1">
+      <c r="A218" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="219" ht="14.25" customHeight="1">
+      <c r="A219" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="220" ht="14.25" customHeight="1">
+      <c r="A220" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="221" ht="14.25" customHeight="1">
+      <c r="A221" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="222" ht="14.25" customHeight="1">
+      <c r="A222" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="223" ht="14.25" customHeight="1">
+      <c r="A223" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="224" ht="14.25" customHeight="1">
+      <c r="A224" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="225" ht="14.25" customHeight="1">
+      <c r="A225" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="226" ht="14.25" customHeight="1">
+      <c r="A226" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="227" ht="14.25" customHeight="1">
+      <c r="A227" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="228" ht="14.25" customHeight="1">
+      <c r="A228" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="229" ht="14.25" customHeight="1">
+      <c r="A229" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="230" ht="14.25" customHeight="1">
+      <c r="A230" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="231" ht="14.25" customHeight="1">
+      <c r="A231" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="232" ht="14.25" customHeight="1">
+      <c r="A232" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="233" ht="14.25" customHeight="1">
+      <c r="A233" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="234" ht="14.25" customHeight="1">
+      <c r="A234" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25" customHeight="1">
+      <c r="A235" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25" customHeight="1">
+      <c r="A236" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25" customHeight="1">
+      <c r="A237" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="238" ht="14.25" customHeight="1">
+      <c r="A238" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="239" ht="14.25" customHeight="1">
+      <c r="A239" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="240" ht="14.25" customHeight="1">
+      <c r="A240" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="241" ht="14.25" customHeight="1">
+      <c r="A241" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="242" ht="14.25" customHeight="1">
+      <c r="A242" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="243" ht="14.25" customHeight="1">
+      <c r="A243" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="244" ht="14.25" customHeight="1">
+      <c r="A244" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="245" ht="14.25" customHeight="1">
+      <c r="A245" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="246" ht="14.25" customHeight="1">
+      <c r="A246" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="247" ht="14.25" customHeight="1">
+      <c r="A247" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="248" ht="14.25" customHeight="1">
+      <c r="A248" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="249" ht="14.25" customHeight="1">
+      <c r="A249" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="250" ht="14.25" customHeight="1">
+      <c r="A250" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="251" ht="14.25" customHeight="1">
+      <c r="A251" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="252" ht="14.25" customHeight="1">
+      <c r="A252" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="253" ht="14.25" customHeight="1">
+      <c r="A253" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="254" ht="14.25" customHeight="1">
+      <c r="A254" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="255" ht="14.25" customHeight="1">
+      <c r="A255" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="256" ht="14.25" customHeight="1">
+      <c r="A256" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="257" ht="14.25" customHeight="1">
+      <c r="A257" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="258" ht="14.25" customHeight="1">
+      <c r="A258" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="259" ht="14.25" customHeight="1">
+      <c r="A259" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="260" ht="14.25" customHeight="1">
+      <c r="A260" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="261" ht="14.25" customHeight="1">
+      <c r="A261" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="262" ht="14.25" customHeight="1">
+      <c r="A262" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="263" ht="14.25" customHeight="1">
+      <c r="A263" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="264" ht="14.25" customHeight="1">
+      <c r="A264" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="265" ht="14.25" customHeight="1">
+      <c r="A265" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="266" ht="14.25" customHeight="1">
+      <c r="A266" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="267" ht="14.25" customHeight="1">
+      <c r="A267" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="268" ht="14.25" customHeight="1">
+      <c r="A268" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="269" ht="14.25" customHeight="1">
+      <c r="A269" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="270" ht="14.25" customHeight="1">
+      <c r="A270" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="271" ht="14.25" customHeight="1">
+      <c r="A271" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="272" ht="14.25" customHeight="1">
+      <c r="A272" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="273" ht="14.25" customHeight="1">
+      <c r="A273" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="274" ht="14.25" customHeight="1">
+      <c r="A274" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="275" ht="14.25" customHeight="1">
+      <c r="A275" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="276" ht="14.25" customHeight="1">
+      <c r="A276" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="277" ht="14.25" customHeight="1">
+      <c r="A277" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="278" ht="14.25" customHeight="1">
+      <c r="A278" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="279" ht="14.25" customHeight="1">
+      <c r="A279" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="280" ht="14.25" customHeight="1">
+      <c r="A280" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="281" ht="14.25" customHeight="1">
+      <c r="A281" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="282" ht="14.25" customHeight="1">
+      <c r="A282" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="283" ht="14.25" customHeight="1">
+      <c r="A283" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="284" ht="14.25" customHeight="1">
+      <c r="A284" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="285" ht="14.25" customHeight="1">
+      <c r="A285" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="286" ht="14.25" customHeight="1">
+      <c r="A286" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="287" ht="14.25" customHeight="1">
+      <c r="A287" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="288" ht="14.25" customHeight="1">
+      <c r="A288" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="289" ht="14.25" customHeight="1">
+      <c r="A289" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="290" ht="14.25" customHeight="1">
+      <c r="A290" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="291" ht="14.25" customHeight="1">
+      <c r="A291" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="292" ht="14.25" customHeight="1">
+      <c r="A292" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="293" ht="14.25" customHeight="1">
+      <c r="A293" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="294" ht="14.25" customHeight="1">
+      <c r="A294" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="295" ht="14.25" customHeight="1">
+      <c r="A295" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="296" ht="14.25" customHeight="1">
+      <c r="A296" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="297" ht="14.25" customHeight="1">
+      <c r="A297" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="298" ht="14.25" customHeight="1">
+      <c r="A298" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="299" ht="14.25" customHeight="1">
+      <c r="A299" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="300" ht="14.25" customHeight="1">
+      <c r="A300" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="301" ht="14.25" customHeight="1">
+      <c r="A301" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="302" ht="14.25" customHeight="1">
+      <c r="A302" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="303" ht="14.25" customHeight="1">
+      <c r="A303" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="304" ht="14.25" customHeight="1">
+      <c r="A304" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="305" ht="14.25" customHeight="1">
+      <c r="A305" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="306" ht="14.25" customHeight="1">
+      <c r="A306" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="307" ht="14.25" customHeight="1">
+      <c r="A307" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="308" ht="14.25" customHeight="1">
+      <c r="A308" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="309" ht="14.25" customHeight="1">
+      <c r="A309" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="310" ht="14.25" customHeight="1">
+      <c r="A310" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="311" ht="14.25" customHeight="1">
+      <c r="A311" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="312" ht="14.25" customHeight="1">
+      <c r="A312" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="313" ht="14.25" customHeight="1">
+      <c r="A313" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="314" ht="14.25" customHeight="1">
+      <c r="A314" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="315" ht="14.25" customHeight="1">
+      <c r="A315" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="316" ht="14.25" customHeight="1">
+      <c r="A316" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="317" ht="14.25" customHeight="1">
+      <c r="A317" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="318" ht="14.25" customHeight="1">
+      <c r="A318" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="319" ht="14.25" customHeight="1">
+      <c r="A319" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="320" ht="14.25" customHeight="1">
+      <c r="A320" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="321" ht="14.25" customHeight="1">
+      <c r="A321" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="322" ht="14.25" customHeight="1">
+      <c r="A322" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="323" ht="14.25" customHeight="1">
+      <c r="A323" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="324" ht="14.25" customHeight="1">
+      <c r="A324" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="325" ht="14.25" customHeight="1">
+      <c r="A325" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="326" ht="14.25" customHeight="1">
+      <c r="A326" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="327" ht="14.25" customHeight="1">
+      <c r="A327" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="328" ht="14.25" customHeight="1">
+      <c r="A328" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="329" ht="14.25" customHeight="1">
+      <c r="A329" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="330" ht="14.25" customHeight="1">
+      <c r="A330" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="331" ht="14.25" customHeight="1">
+      <c r="A331" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="332" ht="14.25" customHeight="1">
+      <c r="A332" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="333" ht="14.25" customHeight="1">
+      <c r="A333" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="334" ht="14.25" customHeight="1">
+      <c r="A334" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="335" ht="14.25" customHeight="1">
+      <c r="A335" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="336" ht="14.25" customHeight="1">
+      <c r="A336" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="337" ht="14.25" customHeight="1">
+      <c r="A337" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Items.xlsx
+++ b/data/Items.xlsx
@@ -15,76 +15,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="585">
   <si>
     <t>テスト回復</t>
+  </si>
+  <si>
+    <t>test recovery</t>
   </si>
   <si>
     <t>薄いミントの匂い
 精力を30％ + 200回復する</t>
   </si>
   <si>
+    <t>Smells lightly of mint.
+Restores 30% + 200 vigor.</t>
+  </si>
+  <si>
     <t>テスト体力回復</t>
+  </si>
+  <si>
+    <t>Test physical recovery</t>
   </si>
   <si>
     <t>薄いオレンジの味
 体力を30％ + 20回復する</t>
   </si>
   <si>
+    <t>Tastes lightly of orange.
+Restores 30% + 20 of your physical strength.</t>
+  </si>
+  <si>
     <t>ディスペルハーブ</t>
   </si>
   <si>
+    <t>Dispelling Herb</t>
+  </si>
+  <si>
     <t>2000ダメージ薬</t>
+  </si>
+  <si>
+    <t>2000 Damage Drug</t>
   </si>
   <si>
     <t>使用すると2000分気持ちよくなるお薬
 2000ダメージ与える</t>
   </si>
   <si>
+    <t>A drug that makes you feel good for 2000 minutes when used.
+It deals 2000 damage.</t>
+  </si>
+  <si>
     <t>4000ダメージ薬</t>
+  </si>
+  <si>
+    <t>4000 Damage Drug</t>
   </si>
   <si>
     <t>使用すると4000分気持ちよくなるお薬
 4000ダメージ与える</t>
   </si>
   <si>
+    <t>A drug that makes you feel good for 4000 minutes when used.
+It deals 4000 damage.</t>
+  </si>
+  <si>
     <t>8000ダメージ薬</t>
+  </si>
+  <si>
+    <t>8000 Damage Drug</t>
   </si>
   <si>
     <t>使用すると8000分気持ちよくなるお薬
 8000ダメージ与える</t>
   </si>
   <si>
+    <t>A drug that makes you feel good for 8,000 minutes when used.
+It deals 8000 damage.</t>
+  </si>
+  <si>
     <t>敵4000回復薬</t>
+  </si>
+  <si>
+    <t>Enemy 4000 recovery Pill</t>
   </si>
   <si>
     <t>使用すると4000分すっきりするお薬
 相手が4000回復する</t>
   </si>
   <si>
+    <t>A medicine that, when used, is refreshing for 4000 minutes.
+The other party will be healed for 4000 health.</t>
+  </si>
+  <si>
     <t>テスト毒薬</t>
   </si>
   <si>
+    <t>test drug</t>
+  </si>
+  <si>
     <t>敵用催淫毒をかける</t>
   </si>
   <si>
+    <t>Apply Enemy Aphrosdisiac Poison</t>
+  </si>
+  <si>
     <t>900000ダメージ薬</t>
+  </si>
+  <si>
+    <t>900,000 Damage Drug</t>
   </si>
   <si>
     <t>使用すると900000分気持ちよくなるお薬
 900000ダメージ与える</t>
   </si>
   <si>
+    <t>A medicine that makes you feel good for 90,0000 minutes when used.
+It deals 90,0000 damage.</t>
+  </si>
+  <si>
     <t>～回復アイテム～</t>
   </si>
   <si>
+    <t>~Recovery Items~</t>
+  </si>
+  <si>
     <t>精力剤</t>
+  </si>
+  <si>
+    <t>Tonic</t>
   </si>
   <si>
     <t>薄いミントの匂い
 精力30％+200回復</t>
   </si>
   <si>
+    <t>Smells lightly of mint.
+Restores 30% + 200 points of vitality.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I71*1&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -92,10 +160,17 @@
     <t>精力剤α</t>
   </si>
   <si>
+    <t>Energizer α</t>
+  </si>
+  <si>
     <t>ミントの匂い
 精力50％+200回復</t>
   </si>
   <si>
+    <t>Smells like mint.
+Restores 50% + 200 points of vitality.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I71*2&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -103,10 +178,17 @@
     <t>精力剤β</t>
   </si>
   <si>
+    <t>Energizer β</t>
+  </si>
+  <si>
     <t>濃いミントの匂い
 精力70％+200回復</t>
   </si>
   <si>
+    <t>Smells strongly of mint.
+Restores 70% +200 points of vitality.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I71*3&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -114,8 +196,15 @@
     <t>精力剤γ</t>
   </si>
   <si>
+    <t>Energizer γ</t>
+  </si>
+  <si>
     <t>ミントよりミントの匂い
 精力全回復</t>
+  </si>
+  <si>
+    <t>Smells even mintier than mint.
+Fully restores vitality.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*3&gt;
@@ -126,10 +215,17 @@
     <t>体力回復薬</t>
   </si>
   <si>
+    <t>Restorative</t>
+  </si>
+  <si>
     <t>薄いオレンジの味
 体力30％+5回復</t>
   </si>
   <si>
+    <t>Tastes mildly like oranges.
+Restores 30% +5 of strength.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I72*1&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -137,10 +233,17 @@
     <t>体力回復薬α</t>
   </si>
   <si>
+    <t>Restorative α</t>
+  </si>
+  <si>
     <t>オレンジの味
 体力50％+5回復</t>
   </si>
   <si>
+    <t>Tastes like oranges.
+Restores 50% +5 of strength.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I72*2&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -148,10 +251,17 @@
     <t>体力回復薬β</t>
   </si>
   <si>
+    <t>Restorative β</t>
+  </si>
+  <si>
     <t>濃いオレンジの味
 体力70％回復</t>
   </si>
   <si>
+    <t>Tastes strongly of oranges.
+Restores 70% of strength.</t>
+  </si>
+  <si>
     <t>&lt;mat1:I72*3&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -159,8 +269,15 @@
     <t>体力回復薬γ</t>
   </si>
   <si>
+    <t>Restorative γ</t>
+  </si>
+  <si>
     <t>わざとらしいオレンジの味
 体力全回復</t>
+  </si>
+  <si>
+    <t>Overwhelmingly orange flavored.
+Fully restores strength.</t>
   </si>
   <si>
     <t>&lt;mat1:I72*3&gt;
@@ -171,8 +288,15 @@
     <t>薬草ジュース</t>
   </si>
   <si>
+    <t>Herbal Juice</t>
+  </si>
+  <si>
     <t>薬草をすり潰して飲みやすく味付けしたもの
 精力体力30％回復</t>
+  </si>
+  <si>
+    <t>Ground and flavored medicinal herbs which are easy to drink.
+Restores 30% vitality and strength.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*1&gt;
@@ -183,8 +307,15 @@
     <t>ポーション</t>
   </si>
   <si>
+    <t>Potion</t>
+  </si>
+  <si>
     <t>心身ともに元気になる冒険の友
 精力体力50％回復</t>
+  </si>
+  <si>
+    <t>An adventurer's best friend which energizes both body and soul.
+Restores 50% vitality and strength.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*2&gt;
@@ -195,8 +326,15 @@
     <t>エーテル</t>
   </si>
   <si>
+    <t>Ether</t>
+  </si>
+  <si>
     <t>大気中の魔力を凝縮し液状化したしずく
 精力体力70％回復</t>
+  </si>
+  <si>
+    <t>Ambient magic which has been condensed into liquid form.
+70% recovery of vitality and strength.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*3&gt;
@@ -208,8 +346,15 @@
     <t>エリクサー</t>
   </si>
   <si>
+    <t>Elixer</t>
+  </si>
+  <si>
     <t>製法が確立していない錬金の産物
 精力体力全回復　TP増加特大</t>
+  </si>
+  <si>
+    <t>An alchemical product created through unknown means.
+Full recovery of vitality and strength, and a large increase to TP</t>
   </si>
   <si>
     <t>&lt;mat1:I71*3&gt;
@@ -221,10 +366,17 @@
     <t>興奮剤</t>
   </si>
   <si>
+    <t>Stimulant</t>
+  </si>
+  <si>
     <t>アドレナリンが大量に出る薬
 TP増加大</t>
   </si>
   <si>
+    <t>A drug which produces copius amounts of adrenaline.
+Large increase to TP</t>
+  </si>
+  <si>
     <t>&lt;mat1:I73*1&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -232,10 +384,17 @@
     <t>覚醒薬</t>
   </si>
   <si>
+    <t>Psychoactive drug</t>
+  </si>
+  <si>
     <t>ギリギリ合法なお薬
 TP増加特大</t>
   </si>
   <si>
+    <t>Medicine which is barely even legal.
+Extra large increase to TP</t>
+  </si>
+  <si>
     <t>&lt;mat1:I73*2&gt;
 &lt;matG:10&gt;</t>
   </si>
@@ -243,22 +402,43 @@
     <t>攻撃の薬</t>
   </si>
   <si>
+    <t>Combat Potion</t>
+  </si>
+  <si>
     <t>攻撃力と技巧が一時的にアップする薬
 攻撃力UP　技巧UP　TP増加小</t>
   </si>
   <si>
+    <t>A potion that temporarily increases attack power and technique.
+Attack power UP, Technique UP, small increase to TP</t>
+  </si>
+  <si>
     <t>防御の薬</t>
+  </si>
+  <si>
+    <t>Safeguard Potion</t>
   </si>
   <si>
     <t>防御力と精神力が一時的にアップする薬
 防御力UP　精神力UP　TP増加小</t>
   </si>
   <si>
+    <t>A potion that temporarily increases defense and mental strength.
+Defensive power up, Mental power up, small increase to TP.</t>
+  </si>
+  <si>
     <t>耐久の薬</t>
+  </si>
+  <si>
+    <t>Steroid</t>
   </si>
   <si>
     <t>最大精力が一時的にアップする薬
 最大精力UP(重ね掛け可)　TP増加小</t>
+  </si>
+  <si>
+    <t>A medicine that temporarily increases maximum vigor.
+Maximum vigor up (can be stacked), small increase to TP.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*2&gt;
@@ -269,8 +449,15 @@
     <t>最後の切り札</t>
   </si>
   <si>
+    <t>Trump Card</t>
+  </si>
+  <si>
     <t>運命を捻じ曲げる力を持ったカード
 精力体力全回復　全能力UP</t>
+  </si>
+  <si>
+    <t>A card with the power to twist fate.
+Full restoration of vigor and strength, and all abilities UP.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*5&gt;
@@ -283,8 +470,15 @@
     <t>鬼神の秘薬</t>
   </si>
   <si>
+    <t xml:space="preserve">The Elixer of Life </t>
+  </si>
+  <si>
     <t>鬼の力を身体に宿す幻の秘薬
 全ステータス1.5倍（戦闘中）</t>
+  </si>
+  <si>
+    <t>A phantasmal elixir that imbues one with the power of demons.
+All stats multiplied by 1.5 (in battle).</t>
   </si>
   <si>
     <t>&lt;mat1:I71*5&gt;
@@ -297,504 +491,1001 @@
     <t>シナピスの水</t>
   </si>
   <si>
+    <t>Water of Sinapis</t>
+  </si>
+  <si>
     <t>万病に効く薬
 精力体力全回復　TP増加特大</t>
   </si>
   <si>
+    <t>A panacea for all that ails.
+Restores all vitality and strength, extra large increase to TP.</t>
+  </si>
+  <si>
     <t>アトテック8</t>
+  </si>
+  <si>
+    <t>Atotech 8</t>
   </si>
   <si>
     <t>世界に期待された新薬
 精力体力50％回復　副作用有</t>
   </si>
   <si>
+    <t>The world's most anticipated new drug.
+50% recovery of energy and stamina, with side effects.</t>
+  </si>
+  <si>
     <t>強靭大人液</t>
+  </si>
+  <si>
+    <t>Tough Guy Liquid</t>
   </si>
   <si>
     <t>ぶっかけるとわからせることが出来る
 1000ダメージを与える</t>
   </si>
   <si>
+    <t>You can let them know you're going to spray it.
+It does 1,000 damage.</t>
+  </si>
+  <si>
     <t>レッドボトルコーヒー</t>
+  </si>
+  <si>
+    <t>Big Boss Coffee</t>
   </si>
   <si>
     <t>いつもの味
 TP増加特大　暗闇解除</t>
   </si>
   <si>
+    <t>Smooth and clear taste.
+Extra large increase to TP, removes darkness.</t>
+  </si>
+  <si>
     <t>点眼薬</t>
+  </si>
+  <si>
+    <t>Eye Drops</t>
   </si>
   <si>
     <t>目で飲む回復薬
 精力回復15％　状態異常を解除　暗闇になる</t>
   </si>
   <si>
+    <t>Medicine for the eyes.
+15% restoration of vigor, removes status quo and darkness.</t>
+  </si>
+  <si>
     <t>栄養ドリンク</t>
+  </si>
+  <si>
+    <t>Yonker Energy Drink</t>
   </si>
   <si>
     <t>栄養を補給し体力を回復する
 体力20回復　脱力解除</t>
   </si>
   <si>
+    <t>Nourishes the body and restores strength.
+Restores 20 physical strength, and removes weakness.</t>
+  </si>
+  <si>
     <t>アンプル</t>
+  </si>
+  <si>
+    <t>Ampoule</t>
   </si>
   <si>
     <t>痛みを鎮静化させ体力を全回復する
 体力全回復　脱力解除</t>
   </si>
   <si>
+    <t>Sedates pain and restores one to full strength.
+Full restoration of physical strength and removes weakness.</t>
+  </si>
+  <si>
     <t>漢方薬</t>
+  </si>
+  <si>
+    <t>Chinese herbal medicine</t>
   </si>
   <si>
     <t>植物の根っこを粉にしたもの
 魔物戦の状態異常解除</t>
   </si>
   <si>
+    <t>Powdered plant roots.
+Removes ___ condition</t>
+  </si>
+  <si>
     <t>クマリ</t>
+  </si>
+  <si>
+    <t>Kumari</t>
   </si>
   <si>
     <t>遠慮するな！気付け薬が仕込んである！さぁ、殴れ！
 精力500回復　発情解除　消費無し</t>
   </si>
   <si>
+    <t>Don't be shy! I've got a smelling salve in there! Come on, hit me!
+500 energy recovery, removes excitement, removes prey.</t>
+  </si>
+  <si>
     <t>マクルード</t>
+  </si>
+  <si>
+    <t>Macleod</t>
   </si>
   <si>
     <t>デイツ餡のあまーいお菓子
 体力5回復</t>
   </si>
   <si>
+    <t>Sweet pastry made with date bean paste.
+Recovers 5 strength</t>
+  </si>
+  <si>
     <t>フェイゾンフレーク</t>
+  </si>
+  <si>
+    <t>Phason Flake</t>
   </si>
   <si>
     <t>高純度の液状フェイゾンをフリーズドライで凝固した栄養食品
 全能力UP TP増加大</t>
   </si>
   <si>
+    <t>Nutritional food made from freeze-dried coagulated high-purity liquid phason.
+All capacities UP, Large increase to TP</t>
+  </si>
+  <si>
     <t>キュケオン</t>
+  </si>
+  <si>
+    <t>Kykeon</t>
   </si>
   <si>
     <t>水と大麦とペニーロイヤルミントを使った飲み物
 攻撃力UP　技巧UP　最大精力UP</t>
   </si>
   <si>
+    <t>An ancient Greek drink made with water, barley and pennyroyal mint.
+Attack power up, technique up, maximum vigor up.</t>
+  </si>
+  <si>
     <t>精力増強剤</t>
+  </si>
+  <si>
+    <t>Energy Booster</t>
   </si>
   <si>
     <t>一時的に精力の最大値を増やす薬　マカ配合
 精力20％回復 最大精力UP（8ターン 600歩）</t>
   </si>
   <si>
+    <t>Pill to temporarily increase maximum vigor, containing Maca.
+20% recovery of vigor, Maximum vigor increase (8 turns, 600 steps)</t>
+  </si>
+  <si>
     <t>ネクター</t>
+  </si>
+  <si>
+    <t>Ambrosia</t>
   </si>
   <si>
     <t>神が好むとされる桃ジュース
 防御力UP　精神力UP　最大精力UP</t>
   </si>
   <si>
+    <t>Peach juice, said to be favored by the gods.
+Defenses UP, mental strength UP, maximum vigor UP.</t>
+  </si>
+  <si>
     <t>～ドーピングアイテム～</t>
   </si>
   <si>
+    <t>~Skill Increase items~</t>
+  </si>
+  <si>
     <t>アタクの実</t>
+  </si>
+  <si>
+    <t>Attack Berry</t>
   </si>
   <si>
     <t>食べるとグイグイいきたい気持ちになる木の実
 攻撃力+1(永続)</t>
   </si>
   <si>
+    <t>A berry that makes you want to go gushy when you eat it.
+Attack +1 (permanent).</t>
+  </si>
+  <si>
     <t>デフの実</t>
+  </si>
+  <si>
+    <t>Defense Berry</t>
   </si>
   <si>
     <t>食べると皮膚が少し硬くなる木の実
 防御力+1(永続)</t>
   </si>
   <si>
+    <t>A berry that hardens the skin slightly when eaten.
+Defense +1 (permanent).</t>
+  </si>
+  <si>
     <t>テクニの実</t>
+  </si>
+  <si>
+    <t>Technicolor Berry</t>
   </si>
   <si>
     <t>食べると手先が器用になる木の実
 技巧+1(永続)</t>
   </si>
   <si>
+    <t>A berry that makes you more dexterous when eaten.
+Skill +1 (permanent).</t>
+  </si>
+  <si>
     <t>マインの実</t>
+  </si>
+  <si>
+    <t>Mind Berry</t>
   </si>
   <si>
     <t>食べると精神的に強くなる木の実
 精神力+1(永続)</t>
   </si>
   <si>
+    <t>A berry that makes you mentally strong when you eat it.
+Mental strength +1 (permanent).</t>
+  </si>
+  <si>
     <t>アジリの実</t>
+  </si>
+  <si>
+    <t>Agility Berry</t>
   </si>
   <si>
     <t>食べると瞬発力が良くなる木の実
 敏捷性+1(永続)</t>
   </si>
   <si>
+    <t>A berry that improves your speed when you eat it.
+Agility +1 (permanent).</t>
+  </si>
+  <si>
     <t>デストの実</t>
+  </si>
+  <si>
+    <t>Destro Berry</t>
   </si>
   <si>
     <t>食べると破壊衝動が増す木の実
 戦闘力+1(永続)</t>
   </si>
   <si>
+    <t>A nut that increases the urge to destroy when eaten.
+Combat +1 (permanent).</t>
+  </si>
+  <si>
     <t>エネルの実</t>
+  </si>
+  <si>
+    <t>Energy Berry</t>
   </si>
   <si>
     <t>食べると精が付く木の実
 最大精力+20(永続)</t>
   </si>
   <si>
+    <t>Fruit that energizes when eaten.
+Maximum vigor +20 (permanent)</t>
+  </si>
+  <si>
     <t>マスルの実</t>
+  </si>
+  <si>
+    <t>Muscle Berry</t>
   </si>
   <si>
     <t>食べると筋肉が付きやすくなる木の実
 最大体力+5(永続)</t>
   </si>
   <si>
+    <t>Berry that make it easier to gain muscle mass when eaten.
+Maximum strength +5 (permanent).</t>
+  </si>
+  <si>
     <t>～素材系アイテム～</t>
   </si>
   <si>
+    <t>~Material Items~</t>
+  </si>
+  <si>
     <t>精力草</t>
+  </si>
+  <si>
+    <t>Herb</t>
   </si>
   <si>
     <t>食べると精が付く草
 素材</t>
   </si>
   <si>
+    <t>Herb that perks you up when eaten.
+Material.</t>
+  </si>
+  <si>
     <t>体力草</t>
+  </si>
+  <si>
+    <t>Physical strength herb</t>
   </si>
   <si>
     <t>健康にいい成分が含まれている草
 素材</t>
   </si>
   <si>
+    <t>Nutritious herbs.
+Materials.</t>
+  </si>
+  <si>
     <t>強化草</t>
+  </si>
+  <si>
+    <t>Reinforcing herb</t>
   </si>
   <si>
     <t>混ぜると効果を強める力のある草
 素材</t>
   </si>
   <si>
+    <t>Herbs that intensify their effects when mixed with other items.
+Material.</t>
+  </si>
+  <si>
     <t>幸福草</t>
+  </si>
+  <si>
+    <t>Lucky Herb</t>
   </si>
   <si>
     <t>人の幸せを吸って成長する草
 素材</t>
   </si>
   <si>
+    <t>Herb that grows by sucking in the happiness of others.
+Material.</t>
+  </si>
+  <si>
     <t>鉄鉱石</t>
+  </si>
+  <si>
+    <t>Iron Ore</t>
   </si>
   <si>
     <t>鉄を多く含んだ鉱石
 素材</t>
   </si>
   <si>
+    <t>Iron-rich ore.
+Material.</t>
+  </si>
+  <si>
     <t>金鉱石</t>
+  </si>
+  <si>
+    <t>Gold Ore</t>
   </si>
   <si>
     <t>金を多く含んだ鉱石
 素材</t>
   </si>
   <si>
+    <t>Gold-rich ore.
+Material.</t>
+  </si>
+  <si>
     <t>ルビー</t>
+  </si>
+  <si>
+    <t>Ruby</t>
   </si>
   <si>
     <t>燃える炎のような赤みを持つ宝石
 素材</t>
   </si>
   <si>
+    <t>A gemstone with a reddish hue like a burning flame.
+Material.</t>
+  </si>
+  <si>
     <t>アクアマリン</t>
+  </si>
+  <si>
+    <t>Aquamarine</t>
   </si>
   <si>
     <t>静かな海のような青さを持つ宝石
 素材</t>
   </si>
   <si>
+    <t>A gemstone as blue as the calm sea.
+Material.</t>
+  </si>
+  <si>
     <t>エメラルド</t>
+  </si>
+  <si>
+    <t>Emerald</t>
   </si>
   <si>
     <t>葉を揺らす風のような緑色の宝石
 素材</t>
   </si>
   <si>
+    <t>A green gem like the wind shaking the leaves.
+Material.</t>
+  </si>
+  <si>
     <t>ダイヤモンド</t>
+  </si>
+  <si>
+    <t>Diamond</t>
   </si>
   <si>
     <t>大地を強く踏みしめた時に生まれる宝石
 素材</t>
   </si>
   <si>
+    <t>Jewelry created when you step hard on the earth.
+Material.</t>
+  </si>
+  <si>
     <t>淫石</t>
+  </si>
+  <si>
+    <t>Lust Stone</t>
   </si>
   <si>
     <t>淫魔の魔力に反応して怪しく光る宝石
 素材</t>
   </si>
   <si>
+    <t>A jewel that glows suspiciously in response to the magic of a succubus.
+Material.</t>
+  </si>
+  <si>
     <t>魔獣の牙</t>
+  </si>
+  <si>
+    <t>Fangs of the Hexenbeast</t>
   </si>
   <si>
     <t>人や動物を美味しく頂くための歯
 素材</t>
   </si>
   <si>
+    <t>Fangs used to feast upon both animals and people.
+Material.</t>
+  </si>
+  <si>
     <t>魔族の角</t>
+  </si>
+  <si>
+    <t>Devil Horns</t>
   </si>
   <si>
     <t>見た者に恐怖を植え付けるための角
 素材</t>
   </si>
   <si>
+    <t>Horns which instill fear in the beholder.
+Material.</t>
+  </si>
+  <si>
     <t>木材</t>
+  </si>
+  <si>
+    <t>Wood</t>
   </si>
   <si>
     <t>いい感じに硬く乾燥した木
 素材</t>
   </si>
   <si>
+    <t>Good quality, hard, dry wood.
+Material.</t>
+  </si>
+  <si>
     <t>風切りの羽</t>
+  </si>
+  <si>
+    <t>Feathers of Flight</t>
   </si>
   <si>
     <t>風の魔力を微かに感じる軽い羽
 素材</t>
   </si>
   <si>
+    <t>Lightweight feathers with a hint of wind magic.
+Material.</t>
+  </si>
+  <si>
     <t>蜘蛛の糸玉</t>
+  </si>
+  <si>
+    <t>Spider silk thread</t>
   </si>
   <si>
     <t>編み物が得意な手芸蜘蛛の丈夫な糸
 素材</t>
   </si>
   <si>
+    <t>Sturdy yarn from a handicraft spider that is good for knitting.
+Material.</t>
+  </si>
+  <si>
     <t>つやうろこ</t>
+  </si>
+  <si>
+    <t>Glistening scale</t>
   </si>
   <si>
     <t>独特の光沢があるうろこ
 素材</t>
   </si>
   <si>
+    <t>Unique shiny scaly
+Material.</t>
+  </si>
+  <si>
     <t>もこもこ</t>
+  </si>
+  <si>
+    <t>Mokomoko</t>
   </si>
   <si>
     <t>もこもこふわふわした何か
 素材</t>
   </si>
   <si>
+    <t>Something fluffy and fuzzy.
+Material.</t>
+  </si>
+  <si>
     <t>ふさ毛皮</t>
+  </si>
+  <si>
+    <t>Tufted Fur</t>
   </si>
   <si>
     <t>触り心地のいいふさふさな毛皮
 素材</t>
   </si>
   <si>
+    <t>Comfortable and bushy fur.
+material</t>
+  </si>
+  <si>
     <t>パピルス</t>
+  </si>
+  <si>
+    <t>Papyrus</t>
   </si>
   <si>
     <t>謎の言語が書かれたとても丈夫なスクロール
 素材</t>
   </si>
   <si>
+    <t>A very sturdy scroll with a mysterious language written on it.
+Material.</t>
+  </si>
+  <si>
     <t>グルーパウダー</t>
+  </si>
+  <si>
+    <t>Powdered Glue</t>
   </si>
   <si>
     <t>水を混ぜると引っ付いて取れなくなる粉
 素材</t>
   </si>
   <si>
+    <t>Powder that sticks permanently when mixed with water.
+Material.</t>
+  </si>
+  <si>
     <t>サンゴ</t>
+  </si>
+  <si>
+    <t>Coral</t>
   </si>
   <si>
     <t>植物のような石のような動物
 素材</t>
   </si>
   <si>
+    <t>A plant-like, stone-like animal.
+Material.</t>
+  </si>
+  <si>
     <t>ペレット</t>
+  </si>
+  <si>
+    <t>Pellet</t>
   </si>
   <si>
     <t>猛禽類などが吐き出した謎の塊
 素材</t>
   </si>
   <si>
+    <t>Mysterious lumps of fur spat out by birds of prey
+Material.</t>
+  </si>
+  <si>
     <t>捕光石</t>
+  </si>
+  <si>
+    <t>Light-catching stones</t>
   </si>
   <si>
     <t>光を閉じ込める性質がある石　割ると光る
 素材</t>
   </si>
   <si>
+    <t>A stone that traps light and glows when broken.
+Material.</t>
+  </si>
+  <si>
     <t>燃料貝</t>
+  </si>
+  <si>
+    <t>Fuel Cockle</t>
   </si>
   <si>
     <t>砕くと激しく燃える貝殻
 素材</t>
   </si>
   <si>
+    <t>A shell that burns fiercely when crushed.
+Material.</t>
+  </si>
+  <si>
     <t>六魂石</t>
+  </si>
+  <si>
+    <t>Six-spirit Stone</t>
   </si>
   <si>
     <t>魔物の胃の中で6人分の命が圧縮された塊
 素材</t>
   </si>
   <si>
+    <t>A mass of six lives compressed in the stomach of a demon.
+Material.</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 素材</t>
   </si>
   <si>
+    <t>~Materials~</t>
+  </si>
+  <si>
     <t>心の結晶</t>
+  </si>
+  <si>
+    <t>Piece of mind</t>
   </si>
   <si>
     <t>人属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized magic of the human attribute.
+Material.</t>
+  </si>
+  <si>
     <t>悪の結晶</t>
+  </si>
+  <si>
+    <t>Crystal of evil</t>
   </si>
   <si>
     <t>悪属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized evil magic.
+Material.</t>
+  </si>
+  <si>
     <t>獣の結晶</t>
+  </si>
+  <si>
+    <t>Beast Crystal</t>
   </si>
   <si>
     <t>獣属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized beastly magic.
+Material.</t>
+  </si>
+  <si>
     <t>水の結晶</t>
+  </si>
+  <si>
+    <t>Water Crystal</t>
   </si>
   <si>
     <t>水属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized water-based magic
+Material.</t>
+  </si>
+  <si>
     <t>風の結晶</t>
+  </si>
+  <si>
+    <t>Wind Crystal</t>
   </si>
   <si>
     <t>風属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized wind magic.
+Material.</t>
+  </si>
+  <si>
     <t>虫の結晶</t>
+  </si>
+  <si>
+    <t>Insect Crystal</t>
   </si>
   <si>
     <t>虫属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized magic of the insect attribute.
+Material.</t>
+  </si>
+  <si>
     <t>草の結晶</t>
+  </si>
+  <si>
+    <t>Grass Crystal</t>
   </si>
   <si>
     <t>草属性の魔力が結晶化したもの
 素材</t>
   </si>
   <si>
+    <t>Crystallized magic of the grass attribute.
+Material.</t>
+  </si>
+  <si>
     <t>機械の部品</t>
+  </si>
+  <si>
+    <t>Machine parts</t>
   </si>
   <si>
     <t>ポロっととれた何かのパーツ
 素材</t>
   </si>
   <si>
+    <t>Parts that came off of some machine
+Material.</t>
+  </si>
+  <si>
     <t>ロープ</t>
+  </si>
+  <si>
+    <t>Rope</t>
   </si>
   <si>
     <t xml:space="preserve">丈夫なロープ
 </t>
   </si>
   <si>
+    <t>A sturdy length of rope</t>
+  </si>
+  <si>
     <t>尖ったもの</t>
+  </si>
+  <si>
+    <t>Sharp thing</t>
   </si>
   <si>
     <t xml:space="preserve">鋭く尖った槍の先っぽ
 </t>
   </si>
   <si>
+    <t>The sharp point of a spear</t>
+  </si>
+  <si>
     <t>棒</t>
+  </si>
+  <si>
+    <t>Stick</t>
   </si>
   <si>
     <t xml:space="preserve">ただの木の棒
 </t>
   </si>
   <si>
+    <t>Just a plain wooden stick</t>
+  </si>
+  <si>
     <t>重くて硬いもの</t>
   </si>
   <si>
+    <t>Heavy, hard object</t>
+  </si>
+  <si>
     <t>重くて硬い金属のインゴット</t>
   </si>
   <si>
+    <t>A heavy, hard metal ingot</t>
+  </si>
+  <si>
     <t>またたび</t>
   </si>
   <si>
+    <t>Life of the Wanderer</t>
+  </si>
+  <si>
     <t>猫を狂わせる魔法の粉</t>
   </si>
   <si>
+    <t>Magic powder that drives cats crazy</t>
+  </si>
+  <si>
     <t>金目のもの</t>
+  </si>
+  <si>
+    <t>Valuable</t>
   </si>
   <si>
     <t>使えない癖に価値のありそうな何か
 換金アイテム</t>
   </si>
   <si>
+    <t>Something that is unusable, but valuable.
+Cash item.</t>
+  </si>
+  <si>
     <t>もっと金目のもの</t>
+  </si>
+  <si>
+    <t>Glittering item</t>
   </si>
   <si>
     <t>とりあえずよく光を反射するキラキラした何か
 換金アイテム</t>
   </si>
   <si>
+    <t>Something sparkly that reflects light.
+Redemption item.</t>
+  </si>
+  <si>
     <t>かなり金目のもの</t>
+  </si>
+  <si>
+    <t>Quite a Goldmine</t>
   </si>
   <si>
     <t>高級感はあるが置く以外に用途の無い何か
 換金アイテム</t>
   </si>
   <si>
+    <t>Something that looks luxurious but has no use other than showing off
+Cash item.</t>
+  </si>
+  <si>
     <t>素晴らしく金目のもの</t>
+  </si>
+  <si>
+    <t>Wonderful Golden Gewgaw</t>
   </si>
   <si>
     <t>お金持ちがお金持ちアピールする為の何か
 換金アイテム</t>
   </si>
   <si>
+    <t>Something for the rich to show off their riches.
+Redemption item.</t>
+  </si>
+  <si>
     <t>圧倒的に金目のもの</t>
+  </si>
+  <si>
+    <t>Extremely expensive item</t>
   </si>
   <si>
     <t>素手で触ることに罪悪感を覚えるほどの何か
 換金アイテム</t>
   </si>
   <si>
+    <t>Something that I would feel guilty about touching with my bare hands.
+A cash item.</t>
+  </si>
+  <si>
     <t>菓子折り</t>
+  </si>
+  <si>
+    <t>Box of Cakes</t>
   </si>
   <si>
     <t>この世界の甘さをギュッと箱に詰めたもの
 正気度3回復</t>
   </si>
   <si>
+    <t>A box full of the sweetness of this world.
+Restores 3 levels of Sanity.</t>
+  </si>
+  <si>
     <t>お菓子</t>
+  </si>
+  <si>
+    <t>Sweets</t>
   </si>
   <si>
     <t>兄妹で励まし合いながら食べると元気が出るはず
 正気度1回復</t>
   </si>
   <si>
+    <t>It should cheer you up to share it with your sibling.
+Restores 1 level of Sanity.</t>
+  </si>
+  <si>
     <t>～大切なもの～</t>
   </si>
   <si>
+    <t>~Key Items~</t>
+  </si>
+  <si>
     <t>帰還の翼</t>
+  </si>
+  <si>
+    <t>Wings of Return</t>
   </si>
   <si>
     <t>テレポートの魔力が込められた翼
 拠点に戻ることが出来る</t>
   </si>
   <si>
+    <t>Wings with the magic of teleportation.
+It allows you to return to your base.</t>
+  </si>
+  <si>
     <t>錬金道具</t>
+  </si>
+  <si>
+    <t>Alchemy Tools</t>
   </si>
   <si>
     <t>錬金術の道具一式
 どこでも錬金術が出来る</t>
   </si>
   <si>
+    <t>A set of alchemical tools.
+You can do alchemy anywhere.</t>
+  </si>
+  <si>
     <t>手鏡</t>
   </si>
   <si>
@@ -803,6 +1494,11 @@
   <si>
     <t>鏡の中の自分がこちらを見ている
 現在のSAN値\v[270]　名前変更/不具合の修正が出来る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mirror you can see yourself in.
+Current Sanity \v[270]. Can be used to change name and fix bugs.
+</t>
   </si>
   <si>
     <t xml:space="preserve">A mirror you can see yourself in.
@@ -813,112 +1509,210 @@
     <t>依存度</t>
   </si>
   <si>
+    <t xml:space="preserve">Degree of Dependence </t>
+  </si>
+  <si>
     <t>まだやれるか自分の顔を見つめてみる
 現在のSAN値　\v[270]</t>
   </si>
   <si>
+    <t>I'm going to look at my face and see if I can still go on.
+Current SAN value \v[270]</t>
+  </si>
+  <si>
     <t>応接室の鍵</t>
+  </si>
+  <si>
+    <t>Reception Room Key</t>
   </si>
   <si>
     <t xml:space="preserve">応接室とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Drawing Room Key</t>
+  </si>
+  <si>
     <t>食糧庫の鍵</t>
   </si>
   <si>
+    <t>Pantry Key</t>
+  </si>
+  <si>
     <t>食糧庫とタグの付いた鍵</t>
   </si>
   <si>
+    <t>Key with tag that reads "Pantry"</t>
+  </si>
+  <si>
     <t>書庫の鍵</t>
+  </si>
+  <si>
+    <t>Library Key</t>
   </si>
   <si>
     <t xml:space="preserve">書庫とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Storeroom Key</t>
+  </si>
+  <si>
     <t>倉庫の鍵</t>
+  </si>
+  <si>
+    <t>Warehouse Key</t>
   </si>
   <si>
     <t xml:space="preserve">倉庫とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Warehouse"</t>
+  </si>
+  <si>
     <t>調理場の鍵</t>
+  </si>
+  <si>
+    <t>Kitchen Key</t>
   </si>
   <si>
     <t xml:space="preserve">調理場とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Gallery Key</t>
+  </si>
+  <si>
     <t>浴場の鍵</t>
+  </si>
+  <si>
+    <t>Bathhouse Key</t>
   </si>
   <si>
     <t xml:space="preserve">浴場とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Bathhouse"</t>
+  </si>
+  <si>
     <t>バルコニーの鍵</t>
+  </si>
+  <si>
+    <t>Balcony Key</t>
   </si>
   <si>
     <t xml:space="preserve">バルコニーとタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key tagged with "Balcony"</t>
+  </si>
+  <si>
     <t>豪華な鍵</t>
+  </si>
+  <si>
+    <t>Luxurious Keys</t>
   </si>
   <si>
     <t xml:space="preserve">ずっしりと重い高価そうな鍵
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Heavy, expensive-looking keys.
+</t>
+  </si>
+  <si>
     <t>執事の鍵</t>
+  </si>
+  <si>
+    <t>Butler's Key</t>
   </si>
   <si>
     <t xml:space="preserve">執事とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Butler's room"</t>
+  </si>
+  <si>
     <t>メイドの鍵</t>
+  </si>
+  <si>
+    <t>Maid's Key</t>
   </si>
   <si>
     <t xml:space="preserve">メイドとタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Maid's room"</t>
+  </si>
+  <si>
     <t>立派な鍵</t>
   </si>
   <si>
+    <t>Fine Keys</t>
+  </si>
+  <si>
     <t>丈夫そうな太くて硬い鍵</t>
   </si>
   <si>
+    <t>Thick, hard keys which look sturdy.</t>
+  </si>
+  <si>
     <t>クマの小箱</t>
   </si>
   <si>
+    <t>The Bear's Little Box</t>
+  </si>
+  <si>
     <t>中に何か入っているようだが・・・</t>
   </si>
   <si>
+    <t>Looks like there's something inside...</t>
+  </si>
+  <si>
     <t>食堂の鍵</t>
+  </si>
+  <si>
+    <t>Cafeteria Key</t>
   </si>
   <si>
     <t xml:space="preserve">食堂とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Cafeteria"</t>
+  </si>
+  <si>
     <t>ゴミ捨て場の鍵</t>
+  </si>
+  <si>
+    <t>Garbage Key</t>
   </si>
   <si>
     <t xml:space="preserve">ゴミ捨て場とタグが付いた鍵
 </t>
   </si>
   <si>
+    <t>Key with tag which reads "Garbage"</t>
+  </si>
+  <si>
     <t>鉄格子の鍵</t>
+  </si>
+  <si>
+    <t>Cell Key</t>
   </si>
   <si>
     <t xml:space="preserve">地下牢の鉄格子を開く鍵
 </t>
   </si>
   <si>
+    <t>The key that opens the cells in the dungeon</t>
+  </si>
+  <si>
     <t>～夢のかけら～</t>
   </si>
   <si>
@@ -1018,46 +1812,91 @@
     <t>記憶：童貞</t>
   </si>
   <si>
+    <t>Memory: Virginity</t>
+  </si>
+  <si>
     <t>まだ未経験という記憶
 本番をすると喪失</t>
   </si>
   <si>
+    <t>The memory of not having experienced it yet.
+Lost when you do the real thing.</t>
+  </si>
+  <si>
     <t>～敗北の記憶～</t>
   </si>
   <si>
+    <t>~Memories of Defeat~</t>
+  </si>
+  <si>
     <t>敗北の記憶：リリー</t>
+  </si>
+  <si>
+    <t>Memories of Defeat: Lily</t>
   </si>
   <si>
     <t>リリーに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
   </si>
   <si>
+    <t>Lily's memories of defeat.
+How many you've got shows how much you've been squeezed by them</t>
+  </si>
+  <si>
     <t>敗北の記憶：シィナ</t>
+  </si>
+  <si>
+    <t>Memories of Defeat: Sina</t>
   </si>
   <si>
     <t>シィナに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
   </si>
   <si>
+    <t>Sina's memories of defeat.
+How many you've got shows how much you've been squeezed by them</t>
+  </si>
+  <si>
     <t>敗北の記憶：ライム</t>
+  </si>
+  <si>
+    <t>Memories of Defeat: Lime</t>
   </si>
   <si>
     <t>ライムに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
   </si>
   <si>
+    <t>Lime's memories of defeat.
+How many you've got shows how much you've been squeezed by them</t>
+  </si>
+  <si>
     <t>敗北の記憶：アーコ</t>
+  </si>
+  <si>
+    <t>Memories of Defeat: Arco</t>
   </si>
   <si>
     <t>アーコに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
   </si>
   <si>
+    <t>Arco's memories of defeat.
+How many you've got shows how much you've been squeezed by them</t>
+  </si>
+  <si>
     <t>敗北の記憶：ロメリア</t>
+  </si>
+  <si>
+    <t>Memories of Defeat: Romeria</t>
   </si>
   <si>
     <t>ロメリアに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
+  </si>
+  <si>
+    <t>Romeria's memories of defeat.
+How many you've got shows how much you've been squeezed by them</t>
   </si>
   <si>
     <t>敗北の記憶：シャーロット</t>
@@ -1537,1691 +2376,2435 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>71</v>
+      </c>
+      <c r="C40" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>88</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>93</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>98</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>110</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>114</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>116</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>126</v>
+      </c>
+      <c r="C72" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>131</v>
+      </c>
+      <c r="C75" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>133</v>
+      </c>
+      <c r="C76" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>135</v>
+      </c>
+      <c r="C77" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>137</v>
+      </c>
+      <c r="C78" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>139</v>
+      </c>
+      <c r="C79" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>141</v>
+      </c>
+      <c r="C80" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>143</v>
+      </c>
+      <c r="C81" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>145</v>
+      </c>
+      <c r="C82" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>147</v>
+      </c>
+      <c r="C83" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>149</v>
+      </c>
+      <c r="C84" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>151</v>
+      </c>
+      <c r="C85" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>153</v>
+      </c>
+      <c r="C86" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>155</v>
+      </c>
+      <c r="C87" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>157</v>
+      </c>
+      <c r="C88" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>159</v>
+      </c>
+      <c r="C89" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>161</v>
+      </c>
+      <c r="C90" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>163</v>
+      </c>
+      <c r="C91" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>165</v>
+      </c>
+      <c r="C92" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>167</v>
+      </c>
+      <c r="C93" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>169</v>
+      </c>
+      <c r="C94" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>171</v>
+      </c>
+      <c r="C95" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>173</v>
+      </c>
+      <c r="C96" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>175</v>
+      </c>
+      <c r="C97" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>177</v>
+      </c>
+      <c r="C98" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>179</v>
+      </c>
+      <c r="C99" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>181</v>
+      </c>
+      <c r="C100" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>183</v>
+      </c>
+      <c r="C101" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>185</v>
+      </c>
+      <c r="C102" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>187</v>
+      </c>
+      <c r="C103" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>189</v>
+      </c>
+      <c r="C104" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>191</v>
+      </c>
+      <c r="C105" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>193</v>
+      </c>
+      <c r="C106" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>195</v>
+      </c>
+      <c r="C107" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>197</v>
+      </c>
+      <c r="C108" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>199</v>
+      </c>
+      <c r="C109" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>201</v>
+      </c>
+      <c r="C110" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>203</v>
+      </c>
+      <c r="C111" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>205</v>
+      </c>
+      <c r="C112" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>207</v>
+      </c>
+      <c r="C113" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>209</v>
+      </c>
+      <c r="C114" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>211</v>
+      </c>
+      <c r="C115" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>213</v>
+      </c>
+      <c r="C116" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>215</v>
+      </c>
+      <c r="C117" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>217</v>
+      </c>
+      <c r="C118" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>219</v>
+      </c>
+      <c r="C119" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>221</v>
+      </c>
+      <c r="C120" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>223</v>
+      </c>
+      <c r="C121" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>225</v>
+      </c>
+      <c r="C122" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>227</v>
+      </c>
+      <c r="C123" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>229</v>
+      </c>
+      <c r="C124" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>231</v>
+      </c>
+      <c r="C125" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>233</v>
+      </c>
+      <c r="C126" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>235</v>
+      </c>
+      <c r="C127" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>237</v>
+      </c>
+      <c r="C128" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>239</v>
+      </c>
+      <c r="C129" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>241</v>
+      </c>
+      <c r="C130" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>243</v>
+      </c>
+      <c r="C131" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>245</v>
+      </c>
+      <c r="C132" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>247</v>
+      </c>
+      <c r="C133" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>249</v>
+      </c>
+      <c r="C134" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>251</v>
+      </c>
+      <c r="C135" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>253</v>
+      </c>
+      <c r="C136" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>255</v>
+      </c>
+      <c r="C137" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>257</v>
+      </c>
+      <c r="C138" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>259</v>
+      </c>
+      <c r="C139" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>261</v>
+      </c>
+      <c r="C140" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>263</v>
+      </c>
+      <c r="C141" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>265</v>
+      </c>
+      <c r="C142" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>267</v>
+      </c>
+      <c r="C143" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>269</v>
+      </c>
+      <c r="C144" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>271</v>
+      </c>
+      <c r="C145" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>273</v>
+      </c>
+      <c r="C146" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>275</v>
+      </c>
+      <c r="C147" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>277</v>
+      </c>
+      <c r="C148" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>279</v>
+      </c>
+      <c r="C149" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>281</v>
+      </c>
+      <c r="C150" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>283</v>
+      </c>
+      <c r="C151" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>285</v>
+      </c>
+      <c r="C152" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>287</v>
+      </c>
+      <c r="C153" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>289</v>
+      </c>
+      <c r="C154" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>291</v>
+      </c>
+      <c r="C155" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>293</v>
+      </c>
+      <c r="C156" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>295</v>
+      </c>
+      <c r="C157" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>297</v>
+      </c>
+      <c r="C158" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>299</v>
+      </c>
+      <c r="C159" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>301</v>
+      </c>
+      <c r="C160" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>303</v>
+      </c>
+      <c r="C161" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>305</v>
+      </c>
+      <c r="C162" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>307</v>
+      </c>
+      <c r="C163" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>309</v>
+      </c>
+      <c r="C164" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>311</v>
+      </c>
+      <c r="C165" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>313</v>
+      </c>
+      <c r="C166" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>315</v>
+      </c>
+      <c r="C167" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>317</v>
+      </c>
+      <c r="C168" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>319</v>
+      </c>
+      <c r="C169" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>321</v>
+      </c>
+      <c r="C170" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>323</v>
+      </c>
+      <c r="C171" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>325</v>
+      </c>
+      <c r="C172" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>327</v>
+      </c>
+      <c r="C173" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>329</v>
+      </c>
+      <c r="C174" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>331</v>
+      </c>
+      <c r="C175" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>333</v>
+      </c>
+      <c r="C176" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>335</v>
+      </c>
+      <c r="C177" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>337</v>
+      </c>
+      <c r="C178" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>339</v>
+      </c>
+      <c r="C179" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>341</v>
+      </c>
+      <c r="C180" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>343</v>
+      </c>
+      <c r="C181" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>345</v>
+      </c>
+      <c r="C182" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>347</v>
+      </c>
+      <c r="C183" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>349</v>
+      </c>
+      <c r="C184" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>351</v>
+      </c>
+      <c r="C185" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>353</v>
+      </c>
+      <c r="C186" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>355</v>
+      </c>
+      <c r="C187" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>357</v>
+      </c>
+      <c r="C188" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>359</v>
+      </c>
+      <c r="C189" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>361</v>
+      </c>
+      <c r="C190" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>363</v>
+      </c>
+      <c r="C191" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>365</v>
+      </c>
+      <c r="C192" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>367</v>
+      </c>
+      <c r="C193" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>369</v>
+      </c>
+      <c r="C194" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>371</v>
+      </c>
+      <c r="C195" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>373</v>
+      </c>
+      <c r="C196" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>375</v>
+      </c>
+      <c r="C197" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>377</v>
+      </c>
+      <c r="C198" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>379</v>
+      </c>
+      <c r="C199" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>381</v>
+      </c>
+      <c r="C200" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>383</v>
+      </c>
+      <c r="C201" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>385</v>
+      </c>
+      <c r="C202" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>387</v>
+      </c>
+      <c r="C203" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>389</v>
+      </c>
+      <c r="C204" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>391</v>
+      </c>
+      <c r="C205" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>393</v>
+      </c>
+      <c r="C206" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>395</v>
+      </c>
+      <c r="C207" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>397</v>
+      </c>
+      <c r="C208" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>399</v>
+      </c>
+      <c r="C209" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>401</v>
+      </c>
+      <c r="C210" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>403</v>
+      </c>
+      <c r="C211" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>405</v>
+      </c>
+      <c r="C212" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>407</v>
+      </c>
+      <c r="C213" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>409</v>
+      </c>
+      <c r="C214" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>411</v>
+      </c>
+      <c r="C215" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>413</v>
+      </c>
+      <c r="C216" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>415</v>
+      </c>
+      <c r="C217" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>417</v>
+      </c>
+      <c r="C218" t="s">
+        <v>418</v>
       </c>
       <c r="D218" t="s">
-        <v>218</v>
+        <v>418</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>419</v>
+      </c>
+      <c r="C219" t="s">
+        <v>420</v>
       </c>
       <c r="D219" t="s">
-        <v>220</v>
+        <v>421</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>422</v>
+      </c>
+      <c r="C220" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>424</v>
+      </c>
+      <c r="C221" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>426</v>
+      </c>
+      <c r="C222" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>428</v>
+      </c>
+      <c r="C223" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>430</v>
+      </c>
+      <c r="C224" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>432</v>
+      </c>
+      <c r="C225" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>434</v>
+      </c>
+      <c r="C226" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>436</v>
+      </c>
+      <c r="C227" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>438</v>
+      </c>
+      <c r="C228" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>440</v>
+      </c>
+      <c r="C229" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>442</v>
+      </c>
+      <c r="C230" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>444</v>
+      </c>
+      <c r="C231" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>446</v>
+      </c>
+      <c r="C232" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>448</v>
+      </c>
+      <c r="C233" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>450</v>
+      </c>
+      <c r="C234" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>452</v>
+      </c>
+      <c r="C235" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>454</v>
+      </c>
+      <c r="C236" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>456</v>
+      </c>
+      <c r="C237" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>458</v>
+      </c>
+      <c r="C238" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>460</v>
+      </c>
+      <c r="C239" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>462</v>
+      </c>
+      <c r="C240" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>464</v>
+      </c>
+      <c r="C241" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>466</v>
+      </c>
+      <c r="C242" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>468</v>
+      </c>
+      <c r="C243" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>470</v>
+      </c>
+      <c r="C244" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>472</v>
+      </c>
+      <c r="C245" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>474</v>
+      </c>
+      <c r="C246" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>476</v>
+      </c>
+      <c r="C247" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>478</v>
+      </c>
+      <c r="C248" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>480</v>
+      </c>
+      <c r="C249" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>482</v>
+      </c>
+      <c r="C250" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>484</v>
+      </c>
+      <c r="C251" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>486</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>487</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>488</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>489</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>490</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>491</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>492</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>493</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>494</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>495</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>496</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>497</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>498</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>499</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>500</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>501</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>502</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>503</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>504</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>505</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>506</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>274</v>
+        <v>507</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>275</v>
+        <v>508</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>509</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>277</v>
+        <v>510</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>278</v>
+        <v>511</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>279</v>
+        <v>512</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>513</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>281</v>
+        <v>514</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>282</v>
+        <v>515</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>516</v>
+      </c>
+      <c r="C282" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>518</v>
+      </c>
+      <c r="C283" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>520</v>
+      </c>
+      <c r="C284" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>522</v>
+      </c>
+      <c r="C285" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>524</v>
+      </c>
+      <c r="C286" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>288</v>
+        <v>526</v>
+      </c>
+      <c r="C287" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>528</v>
+      </c>
+      <c r="C288" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>290</v>
+        <v>530</v>
+      </c>
+      <c r="C289" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>291</v>
+        <v>532</v>
+      </c>
+      <c r="C290" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>292</v>
+        <v>534</v>
+      </c>
+      <c r="C291" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>293</v>
+        <v>536</v>
+      </c>
+      <c r="C292" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>294</v>
+        <v>538</v>
+      </c>
+      <c r="C293" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>295</v>
+        <v>540</v>
+      </c>
+      <c r="C294" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>296</v>
+        <v>542</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>297</v>
+        <v>543</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>544</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>299</v>
+        <v>545</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>546</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>301</v>
+        <v>547</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>302</v>
+        <v>548</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>303</v>
+        <v>549</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>304</v>
+        <v>550</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>305</v>
+        <v>551</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>306</v>
+        <v>552</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>307</v>
+        <v>553</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>308</v>
+        <v>554</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>309</v>
+        <v>555</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>310</v>
+        <v>556</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>311</v>
+        <v>557</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>312</v>
+        <v>558</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>313</v>
+        <v>559</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>314</v>
+        <v>560</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>315</v>
+        <v>561</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>316</v>
+        <v>562</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>317</v>
+        <v>563</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>318</v>
+        <v>564</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>319</v>
+        <v>565</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>320</v>
+        <v>566</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>321</v>
+        <v>567</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>322</v>
+        <v>568</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>323</v>
+        <v>569</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>324</v>
+        <v>570</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>325</v>
+        <v>571</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>326</v>
+        <v>572</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>573</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>574</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>575</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>576</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>577</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>578</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>580</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>581</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>582</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>583</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/data/Items.xlsx
+++ b/data/Items.xlsx
@@ -42,7 +42,7 @@
   </si>
   <si>
     <t>Tastes lightly of orange.
-Restores 30% + 20 of your physical strength.</t>
+Restores 30% + 20 of your HP.</t>
   </si>
   <si>
     <t>ディスペルハーブ</t>
@@ -223,7 +223,7 @@
   </si>
   <si>
     <t>Tastes mildly like oranges.
-Restores 30% +5 of strength.</t>
+Restores 30% +5 of HP.</t>
   </si>
   <si>
     <t>&lt;mat1:I72*1&gt;
@@ -241,7 +241,7 @@
   </si>
   <si>
     <t>Tastes like oranges.
-Restores 50% +5 of strength.</t>
+Restores 50% +5 of HP.</t>
   </si>
   <si>
     <t>&lt;mat1:I72*2&gt;
@@ -259,7 +259,7 @@
   </si>
   <si>
     <t>Tastes strongly of oranges.
-Restores 70% of strength.</t>
+Restores 70% of HP.</t>
   </si>
   <si>
     <t>&lt;mat1:I72*3&gt;
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>Overwhelmingly orange flavored.
-Fully restores strength.</t>
+Fully restores HP.</t>
   </si>
   <si>
     <t>&lt;mat1:I72*3&gt;
@@ -296,7 +296,7 @@
   </si>
   <si>
     <t>Ground and flavored medicinal herbs which are easy to drink.
-Restores 30% vitality and strength.</t>
+Restores 30% vitality and HP.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*1&gt;
@@ -315,7 +315,7 @@
   </si>
   <si>
     <t>An adventurer's best friend which energizes both body and soul.
-Restores 50% vitality and strength.</t>
+Restores 50% vitality and HP.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*2&gt;
@@ -334,7 +334,7 @@
   </si>
   <si>
     <t>Ambient magic which has been condensed into liquid form.
-70% recovery of vitality and strength.</t>
+70% recovery of vitality and HP.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*3&gt;
@@ -354,7 +354,7 @@
   </si>
   <si>
     <t>An alchemical product created through unknown means.
-Full recovery of vitality and strength, and a large increase to TP</t>
+Full recovery of vitality and HP, and a large increase to TP</t>
   </si>
   <si>
     <t>&lt;mat1:I71*3&gt;
@@ -423,7 +423,7 @@
 防御力UP　精神力UP　TP増加小</t>
   </si>
   <si>
-    <t>A potion that temporarily increases defense and mental strength.
+    <t>A potion that temporarily increases defense and Willpower.
 Defensive power up, Mental power up, small increase to TP.</t>
   </si>
   <si>
@@ -457,7 +457,7 @@
   </si>
   <si>
     <t>A card with the power to twist fate.
-Full restoration of vigor and strength, and all abilities UP.</t>
+Full restoration of vigor and HP, and all abilities UP.</t>
   </si>
   <si>
     <t>&lt;mat1:I71*5&gt;
@@ -491,7 +491,7 @@
     <t>シナピスの水</t>
   </si>
   <si>
-    <t>Water of Sinapis</t>
+    <t>Water of Shinapis</t>
   </si>
   <si>
     <t>万病に効く薬
@@ -499,7 +499,7 @@
   </si>
   <si>
     <t>A panacea for all that ails.
-Restores all vitality and strength, extra large increase to TP.</t>
+Restores all vitality and HP, extra large increase to TP.</t>
   </si>
   <si>
     <t>アトテック8</t>
@@ -568,8 +568,8 @@
 体力20回復　脱力解除</t>
   </si>
   <si>
-    <t>Nourishes the body and restores strength.
-Restores 20 physical strength, and removes weakness.</t>
+    <t>Nourishes the body and restores HP.
+Restores 20 HP, and removes weakness.</t>
   </si>
   <si>
     <t>アンプル</t>
@@ -582,8 +582,8 @@
 体力全回復　脱力解除</t>
   </si>
   <si>
-    <t>Sedates pain and restores one to full strength.
-Full restoration of physical strength and removes weakness.</t>
+    <t>Sedates pain and restores one to full HP.
+Full restoration of HP and removes weakness.</t>
   </si>
   <si>
     <t>漢方薬</t>
@@ -625,7 +625,7 @@
   </si>
   <si>
     <t>Sweet pastry made with date bean paste.
-Recovers 5 strength</t>
+Recovers 5 HP</t>
   </si>
   <si>
     <t>フェイゾンフレーク</t>
@@ -681,7 +681,7 @@
   </si>
   <si>
     <t>Peach juice, said to be favored by the gods.
-Defenses UP, mental strength UP, maximum vigor UP.</t>
+Defenses UP, Willpower UP, maximum vigor UP.</t>
   </si>
   <si>
     <t>～ドーピングアイテム～</t>
@@ -743,7 +743,7 @@
   </si>
   <si>
     <t>A berry that makes you mentally strong when you eat it.
-Mental strength +1 (permanent).</t>
+Willpower +1 (permanent).</t>
   </si>
   <si>
     <t>アジリの実</t>
@@ -799,7 +799,7 @@
   </si>
   <si>
     <t>Berry that make it easier to gain muscle mass when eaten.
-Maximum strength +5 (permanent).</t>
+Maximum HP +5 (permanent).</t>
   </si>
   <si>
     <t>～素材系アイテム～</t>
@@ -825,7 +825,7 @@
     <t>体力草</t>
   </si>
   <si>
-    <t>Physical strength herb</t>
+    <t>HP herb</t>
   </si>
   <si>
     <t>健康にいい成分が含まれている草
@@ -1846,14 +1846,14 @@
     <t>敗北の記憶：シィナ</t>
   </si>
   <si>
-    <t>Memories of Defeat: Sina</t>
+    <t>Memories of Defeat: Shina</t>
   </si>
   <si>
     <t>シィナに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
   </si>
   <si>
-    <t>Sina's memories of defeat.
+    <t>Shina's memories of defeat.
 How many you've got shows how much you've been squeezed by them</t>
   </si>
   <si>

--- a/data/Items.xlsx
+++ b/data/Items.xlsx
@@ -62,7 +62,7 @@
   </si>
   <si>
     <t>A drug that makes you feel good for 2000 minutes when used.
-It deals 2000 damage.</t>
+It deAlsto 2000 damage.</t>
   </si>
   <si>
     <t>4000ダメージ薬</t>
@@ -76,7 +76,7 @@
   </si>
   <si>
     <t>A drug that makes you feel good for 4000 minutes when used.
-It deals 4000 damage.</t>
+It deAlsto 4000 damage.</t>
   </si>
   <si>
     <t>8000ダメージ薬</t>
@@ -90,7 +90,7 @@
   </si>
   <si>
     <t>A drug that makes you feel good for 8,000 minutes when used.
-It deals 8000 damage.</t>
+It deAlsto 8000 damage.</t>
   </si>
   <si>
     <t>敵4000回復薬</t>
@@ -130,7 +130,7 @@
   </si>
   <si>
     <t>A medicine that makes you feel good for 90,0000 minutes when used.
-It deals 90,0000 damage.</t>
+It deAlsto 90,0000 damage.</t>
   </si>
   <si>
     <t>～回復アイテム～</t>
@@ -833,7 +833,7 @@
   </si>
   <si>
     <t>Nutritious herbs.
-Materials.</t>
+MateriAlsto.</t>
   </si>
   <si>
     <t>強化草</t>
@@ -972,7 +972,7 @@
 素材</t>
   </si>
   <si>
-    <t>Fangs used to feast upon both animals and people.
+    <t>Fangs used to feast upon both animAlsto and people.
 Material.</t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
 素材</t>
   </si>
   <si>
-    <t>~Materials~</t>
+    <t>~MateriAlsto~</t>
   </si>
   <si>
     <t>心の結晶</t>

--- a/data/Items.xlsx
+++ b/data/Items.xlsx
@@ -1888,14 +1888,14 @@
     <t>敗北の記憶：ロメリア</t>
   </si>
   <si>
-    <t>Memories of Defeat: Romeria</t>
+    <t>Memories of Defeat: Meria</t>
   </si>
   <si>
     <t>ロメリアに搾り尽くされた記憶
 所持数がどれだけ依存しているかを表す</t>
   </si>
   <si>
-    <t>Romeria's memories of defeat.
+    <t>Meria's memories of defeat.
 How many you've got shows how much you've been squeezed by them</t>
   </si>
   <si>

--- a/data/Items.xlsx
+++ b/data/Items.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="597">
   <si>
     <t>テスト回復</t>
   </si>
@@ -684,6 +684,13 @@
 Defenses UP, Willpower UP, maximum vigor UP.</t>
   </si>
   <si>
+    <t>3淫魔の魔力石</t>
+  </si>
+  <si>
+    <t>リリー達から集めた魔力が染み込んだ水晶
+レベルが3上がる</t>
+  </si>
+  <si>
     <t>～ドーピングアイテム～</t>
   </si>
   <si>
@@ -802,6 +809,13 @@
 Maximum HP +5 (permanent).</t>
   </si>
   <si>
+    <t>クリーピーパスタ</t>
+  </si>
+  <si>
+    <t>グロくて気味の悪いパスタ　でも美味しい
+最大体力+5(永続)</t>
+  </si>
+  <si>
     <t>～素材系アイテム～</t>
   </si>
   <si>
@@ -1354,6 +1368,12 @@
     <t>Magic powder that drives cats crazy</t>
   </si>
   <si>
+    <t>とらのまたたび</t>
+  </si>
+  <si>
+    <t>デカい猫を狂わせる魔法の粉</t>
+  </si>
+  <si>
     <t>金目のもの</t>
   </si>
   <si>
@@ -1431,7 +1451,7 @@
   </si>
   <si>
     <t>この世界の甘さをギュッと箱に詰めたもの
-正気度3回復</t>
+正気度3回復　※檻に持っていき使用</t>
   </si>
   <si>
     <t>A box full of the sweetness of this world.
@@ -1445,7 +1465,7 @@
   </si>
   <si>
     <t>兄妹で励まし合いながら食べると元気が出るはず
-正気度1回復</t>
+正気度1回復　※檻に持っていき使用</t>
   </si>
   <si>
     <t>It should cheer you up to share it with your sibling.
@@ -1494,11 +1514,6 @@
   <si>
     <t>鏡の中の自分がこちらを見ている
 現在のSAN値\v[270]　名前変更/不具合の修正が出来る</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A mirror you can see yourself in.
-Current Sanity \v[270]. Can be used to change name and fix bugs.
-</t>
   </si>
   <si>
     <t xml:space="preserve">A mirror you can see yourself in.
@@ -1711,6 +1726,29 @@
   </si>
   <si>
     <t>The key that opens the cells in the dungeon</t>
+  </si>
+  <si>
+    <t>レコシード</t>
+  </si>
+  <si>
+    <t>音を蓄え発芽する時に放出する植物の種
+録音と再生が出来る</t>
+  </si>
+  <si>
+    <t>とらの鍵</t>
+  </si>
+  <si>
+    <t>研究所の扉を開くための鍵
+全部で4つ必要</t>
+  </si>
+  <si>
+    <t>マンティスの鍵</t>
+  </si>
+  <si>
+    <t>ウィッチラミアの鍵</t>
+  </si>
+  <si>
+    <t>オークの鍵</t>
   </si>
   <si>
     <t>～夢のかけら～</t>
@@ -2364,7 +2402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D337"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2372,2439 +2410,2765 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>66</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>68</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>78</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>81</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>83</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>86</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>91</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>93</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>98</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>101</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>103</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>106</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>108</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>110</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>112</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>116</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>119</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>121</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>124</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>126</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>129</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>131</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>133</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>135</v>
       </c>
-      <c r="C77" t="s">
+      <c r="B77" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>137</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B78" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>139</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B79" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>141</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B80" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>143</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B81" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>145</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B82" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>147</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B83" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>149</v>
       </c>
-      <c r="C84" t="s">
+      <c r="B84" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>151</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B85" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>153</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B86" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>155</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B87" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>157</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B88" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>159</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B89" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>161</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B90" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>163</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B91" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>165</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B92" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>167</v>
       </c>
-      <c r="C93" t="s">
+      <c r="B93" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>169</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B94" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>171</v>
       </c>
-      <c r="C95" t="s">
+      <c r="B95" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>173</v>
       </c>
-      <c r="C96" t="s">
+      <c r="B96" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>175</v>
       </c>
-      <c r="C97" t="s">
+      <c r="B97" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>177</v>
       </c>
-      <c r="C98" t="s">
+      <c r="B98" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>179</v>
       </c>
-      <c r="C99" t="s">
+      <c r="B99" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>181</v>
       </c>
-      <c r="C100" t="s">
+      <c r="B100" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>183</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B101" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>185</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>187</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>189</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>191</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>193</v>
       </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>195</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>197</v>
       </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>199</v>
       </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>201</v>
       </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>203</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>205</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>207</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>209</v>
       </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>211</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>213</v>
       </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>215</v>
       </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>217</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>219</v>
       </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>221</v>
       </c>
-      <c r="C120" t="s">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
         <v>223</v>
       </c>
-      <c r="C121" t="s">
+      <c r="B123" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>225</v>
       </c>
-      <c r="C122" t="s">
+      <c r="B124" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>227</v>
       </c>
-      <c r="C123" t="s">
+      <c r="B125" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>229</v>
       </c>
-      <c r="C124" t="s">
+      <c r="B126" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>231</v>
       </c>
-      <c r="C125" t="s">
+      <c r="B127" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>233</v>
       </c>
-      <c r="C126" t="s">
+      <c r="B128" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>235</v>
       </c>
-      <c r="C127" t="s">
+      <c r="B129" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>237</v>
       </c>
-      <c r="C128" t="s">
+      <c r="B130" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>239</v>
       </c>
-      <c r="C129" t="s">
+      <c r="B131" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>241</v>
       </c>
-      <c r="C130" t="s">
+      <c r="B132" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>243</v>
       </c>
-      <c r="C131" t="s">
+      <c r="B133" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>245</v>
       </c>
-      <c r="C132" t="s">
+      <c r="B134" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>247</v>
       </c>
-      <c r="C133" t="s">
+      <c r="B135" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>249</v>
       </c>
-      <c r="C134" t="s">
+      <c r="B136" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>251</v>
       </c>
-      <c r="C135" t="s">
+      <c r="B137" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>253</v>
       </c>
-      <c r="C136" t="s">
+      <c r="B138" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>255</v>
       </c>
-      <c r="C137" t="s">
+      <c r="B139" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>257</v>
       </c>
-      <c r="C138" t="s">
+      <c r="B140" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>259</v>
       </c>
-      <c r="C139" t="s">
+      <c r="B141" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>261</v>
       </c>
-      <c r="C140" t="s">
+      <c r="B142" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>263</v>
       </c>
-      <c r="C141" t="s">
+      <c r="B143" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>265</v>
       </c>
-      <c r="C142" t="s">
+      <c r="B144" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
         <v>267</v>
       </c>
-      <c r="C143" t="s">
+      <c r="B145" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>269</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B146" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>271</v>
       </c>
-      <c r="C145" t="s">
+      <c r="B147" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>273</v>
       </c>
-      <c r="C146" t="s">
+      <c r="B148" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>275</v>
       </c>
-      <c r="C147" t="s">
+      <c r="B149" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
         <v>277</v>
       </c>
-      <c r="C148" t="s">
+      <c r="B150" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>279</v>
       </c>
-      <c r="C149" t="s">
+      <c r="B151" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>281</v>
       </c>
-      <c r="C150" t="s">
+      <c r="B152" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>283</v>
       </c>
-      <c r="C151" t="s">
+      <c r="B153" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>285</v>
       </c>
-      <c r="C152" t="s">
+      <c r="B154" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
         <v>287</v>
       </c>
-      <c r="C153" t="s">
+      <c r="B155" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
         <v>289</v>
       </c>
-      <c r="C154" t="s">
+      <c r="B156" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>291</v>
       </c>
-      <c r="C155" t="s">
+      <c r="B157" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
         <v>293</v>
       </c>
-      <c r="C156" t="s">
+      <c r="B158" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
         <v>295</v>
       </c>
-      <c r="C157" t="s">
+      <c r="B159" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
         <v>297</v>
       </c>
-      <c r="C158" t="s">
+      <c r="B160" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>299</v>
       </c>
-      <c r="C159" t="s">
+      <c r="B161" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
         <v>301</v>
       </c>
-      <c r="C160" t="s">
+      <c r="B162" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
         <v>303</v>
       </c>
-      <c r="C161" t="s">
+      <c r="B163" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
         <v>305</v>
       </c>
-      <c r="C162" t="s">
+      <c r="B164" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
         <v>307</v>
       </c>
-      <c r="C163" t="s">
+      <c r="B165" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
         <v>309</v>
       </c>
-      <c r="C164" t="s">
+      <c r="B166" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
         <v>311</v>
       </c>
-      <c r="C165" t="s">
+      <c r="B167" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
         <v>313</v>
       </c>
-      <c r="C166" t="s">
+      <c r="B168" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
         <v>315</v>
       </c>
-      <c r="C167" t="s">
+      <c r="B169" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
         <v>317</v>
       </c>
-      <c r="C168" t="s">
+      <c r="B170" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>319</v>
       </c>
-      <c r="C169" t="s">
+      <c r="B171" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>321</v>
       </c>
-      <c r="C170" t="s">
+      <c r="B172" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>323</v>
       </c>
-      <c r="C171" t="s">
+      <c r="B173" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>325</v>
       </c>
-      <c r="C172" t="s">
+      <c r="B174" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>327</v>
       </c>
-      <c r="C173" t="s">
+      <c r="B175" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>329</v>
       </c>
-      <c r="C174" t="s">
+      <c r="B176" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
         <v>331</v>
       </c>
-      <c r="C175" t="s">
+      <c r="B177" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
         <v>333</v>
       </c>
-      <c r="C176" t="s">
+      <c r="B178" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>335</v>
       </c>
-      <c r="C177" t="s">
+      <c r="B179" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
         <v>337</v>
       </c>
-      <c r="C178" t="s">
+      <c r="B180" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
         <v>339</v>
       </c>
-      <c r="C179" t="s">
+      <c r="B181" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
         <v>341</v>
       </c>
-      <c r="C180" t="s">
+      <c r="B182" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
         <v>343</v>
       </c>
-      <c r="C181" t="s">
+      <c r="B183" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
         <v>345</v>
       </c>
-      <c r="C182" t="s">
+      <c r="B184" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
         <v>347</v>
       </c>
-      <c r="C183" t="s">
+      <c r="B185" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>349</v>
       </c>
-      <c r="C184" t="s">
+      <c r="B186" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>351</v>
       </c>
-      <c r="C185" t="s">
+      <c r="B187" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
         <v>353</v>
       </c>
-      <c r="C186" t="s">
+      <c r="B188" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>355</v>
       </c>
-      <c r="C187" t="s">
+      <c r="B189" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>357</v>
       </c>
-      <c r="C188" t="s">
+      <c r="B190" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
         <v>359</v>
       </c>
-      <c r="C189" t="s">
+      <c r="B191" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
         <v>361</v>
       </c>
-      <c r="C190" t="s">
+      <c r="B192" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
         <v>363</v>
       </c>
-      <c r="C191" t="s">
+      <c r="B193" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
         <v>365</v>
       </c>
-      <c r="C192" t="s">
+      <c r="B194" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
         <v>367</v>
       </c>
-      <c r="C193" t="s">
+      <c r="B195" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" t="s">
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
         <v>369</v>
       </c>
-      <c r="C194" t="s">
+      <c r="B196" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" t="s">
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
         <v>371</v>
       </c>
-      <c r="C195" t="s">
+      <c r="B197" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
         <v>373</v>
       </c>
-      <c r="C196" t="s">
+      <c r="B198" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" t="s">
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
         <v>375</v>
       </c>
-      <c r="C197" t="s">
+      <c r="B199" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" t="s">
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
         <v>377</v>
       </c>
-      <c r="C198" t="s">
+      <c r="B200" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" t="s">
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
         <v>379</v>
       </c>
-      <c r="C199" t="s">
+      <c r="B201" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" t="s">
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
         <v>381</v>
       </c>
-      <c r="C200" t="s">
+      <c r="B202" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
         <v>383</v>
       </c>
-      <c r="C201" t="s">
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
         <v>385</v>
       </c>
-      <c r="C202" t="s">
+      <c r="B205" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" t="s">
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
         <v>387</v>
       </c>
-      <c r="C203" t="s">
+      <c r="B206" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" t="s">
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
         <v>389</v>
       </c>
-      <c r="C204" t="s">
+      <c r="B207" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
         <v>391</v>
       </c>
-      <c r="C205" t="s">
+      <c r="B208" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" t="s">
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
         <v>393</v>
       </c>
-      <c r="C206" t="s">
+      <c r="B209" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" t="s">
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
         <v>395</v>
       </c>
-      <c r="C207" t="s">
+      <c r="B210" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
         <v>397</v>
       </c>
-      <c r="C208" t="s">
+      <c r="B211" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" t="s">
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
         <v>399</v>
       </c>
-      <c r="C209" t="s">
+      <c r="B212" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" t="s">
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
         <v>401</v>
       </c>
-      <c r="C210" t="s">
+      <c r="B213" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>403</v>
       </c>
-      <c r="C211" t="s">
+      <c r="B214" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" t="s">
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
         <v>405</v>
       </c>
-      <c r="C212" t="s">
+      <c r="B215" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
         <v>407</v>
       </c>
-      <c r="C213" t="s">
+      <c r="B216" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
         <v>409</v>
       </c>
-      <c r="C214" t="s">
+      <c r="B217" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
         <v>411</v>
       </c>
-      <c r="C215" t="s">
+      <c r="B218" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
         <v>413</v>
       </c>
-      <c r="C216" t="s">
+      <c r="B219" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
         <v>415</v>
       </c>
-      <c r="C217" t="s">
+      <c r="B220" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
         <v>417</v>
       </c>
-      <c r="C218" t="s">
+      <c r="B221" t="s">
         <v>418</v>
       </c>
-      <c r="D218" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
         <v>419</v>
       </c>
-      <c r="C219" t="s">
+      <c r="B222" t="s">
         <v>420</v>
       </c>
-      <c r="D219" t="s">
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
+      <c r="B223" t="s">
         <v>422</v>
       </c>
-      <c r="C220" t="s">
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
+      <c r="B224" t="s">
         <v>424</v>
       </c>
-      <c r="C221" t="s">
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
+      <c r="B225" t="s">
         <v>426</v>
       </c>
-      <c r="C222" t="s">
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
+      <c r="B226" t="s">
         <v>428</v>
       </c>
-      <c r="C223" t="s">
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
+      <c r="B227" t="s">
         <v>430</v>
       </c>
-      <c r="C224" t="s">
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
+      <c r="B228" t="s">
         <v>432</v>
       </c>
-      <c r="C225" t="s">
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
+      <c r="B229" t="s">
         <v>434</v>
       </c>
-      <c r="C226" t="s">
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
+      <c r="B230" t="s">
         <v>436</v>
       </c>
-      <c r="C227" t="s">
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
+      <c r="B231" t="s">
         <v>438</v>
       </c>
-      <c r="C228" t="s">
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
+      <c r="B232" t="s">
         <v>440</v>
       </c>
-      <c r="C229" t="s">
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
+      <c r="B233" t="s">
         <v>442</v>
       </c>
-      <c r="C230" t="s">
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
+      <c r="B234" t="s">
         <v>444</v>
       </c>
-      <c r="C231" t="s">
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" t="s">
+      <c r="B235" t="s">
         <v>446</v>
       </c>
-      <c r="C232" t="s">
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
-      <c r="A233" t="s">
+      <c r="B236" t="s">
         <v>448</v>
       </c>
-      <c r="C233" t="s">
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
-      <c r="A234" t="s">
+      <c r="B237" t="s">
         <v>450</v>
       </c>
-      <c r="C234" t="s">
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="A235" t="s">
+      <c r="B238" t="s">
         <v>452</v>
       </c>
-      <c r="C235" t="s">
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="A236" t="s">
+      <c r="B239" t="s">
         <v>454</v>
       </c>
-      <c r="C236" t="s">
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" t="s">
+      <c r="B240" t="s">
         <v>456</v>
       </c>
-      <c r="C237" t="s">
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
-      <c r="A238" t="s">
+      <c r="B241" t="s">
         <v>458</v>
       </c>
-      <c r="C238" t="s">
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="A239" t="s">
+      <c r="B242" t="s">
         <v>460</v>
       </c>
-      <c r="C239" t="s">
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="A240" t="s">
+      <c r="B243" t="s">
         <v>462</v>
       </c>
-      <c r="C240" t="s">
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
+      <c r="B244" t="s">
         <v>464</v>
       </c>
-      <c r="C241" t="s">
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" t="s">
+      <c r="B245" t="s">
         <v>466</v>
       </c>
-      <c r="C242" t="s">
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
+      <c r="B246" t="s">
         <v>468</v>
       </c>
-      <c r="C243" t="s">
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
-      <c r="A244" t="s">
+      <c r="B247" t="s">
         <v>470</v>
       </c>
-      <c r="C244" t="s">
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
+      <c r="B248" t="s">
         <v>472</v>
       </c>
-      <c r="C245" t="s">
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
-      <c r="A246" t="s">
+      <c r="B249" t="s">
         <v>474</v>
       </c>
-      <c r="C246" t="s">
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="A247" t="s">
+      <c r="B250" t="s">
         <v>476</v>
       </c>
-      <c r="C247" t="s">
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" t="s">
+      <c r="B251" t="s">
         <v>478</v>
       </c>
-      <c r="C248" t="s">
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="A249" t="s">
+      <c r="B252" t="s">
         <v>480</v>
       </c>
-      <c r="C249" t="s">
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" t="s">
+      <c r="B253" t="s">
         <v>482</v>
       </c>
-      <c r="C250" t="s">
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" t="s">
+      <c r="B254" t="s">
         <v>484</v>
       </c>
-      <c r="C251" t="s">
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
+      <c r="B255" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" t="s">
+      <c r="B256" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" t="s">
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
+      <c r="B257" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" t="s">
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" t="s">
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" t="s">
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" t="s">
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" t="s">
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" t="s">
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" t="s">
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" t="s">
+      <c r="B265" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
-      <c r="A266" t="s">
+      <c r="B266" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
-      <c r="A267" t="s">
+      <c r="B267" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
-      <c r="A268" t="s">
+      <c r="B268" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="269" spans="1:4">
-      <c r="A269" t="s">
+      <c r="B269" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="270" spans="1:4">
-      <c r="A270" t="s">
+      <c r="B270" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="271" spans="1:4">
-      <c r="A271" t="s">
+      <c r="B271" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
-      <c r="A272" t="s">
+      <c r="B272" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" t="s">
+      <c r="B273" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" t="s">
+      <c r="B274" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" t="s">
+      <c r="B275" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" t="s">
+      <c r="B276" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" t="s">
+      <c r="B277" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" t="s">
+      <c r="B278" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" t="s">
+      <c r="B279" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" t="s">
+      <c r="B280" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" t="s">
+      <c r="B281" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" t="s">
+      <c r="B282" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
         <v>516</v>
       </c>
-      <c r="C282" t="s">
+      <c r="B283" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" t="s">
+      <c r="B284" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
         <v>518</v>
       </c>
-      <c r="C283" t="s">
+      <c r="B285" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" t="s">
+      <c r="B286" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
         <v>520</v>
       </c>
-      <c r="C284" t="s">
+      <c r="B287" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" t="s">
+      <c r="B288" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
         <v>522</v>
       </c>
-      <c r="C285" t="s">
+      <c r="B289" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" t="s">
+      <c r="B290" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
         <v>524</v>
       </c>
-      <c r="C286" t="s">
+      <c r="B291" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" t="s">
+      <c r="B292" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
         <v>526</v>
       </c>
-      <c r="C287" t="s">
+      <c r="B293" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" t="s">
+      <c r="B294" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
         <v>528</v>
       </c>
-      <c r="C288" t="s">
+      <c r="B295" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" t="s">
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
         <v>530</v>
       </c>
-      <c r="C289" t="s">
+      <c r="B296" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" t="s">
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
         <v>532</v>
       </c>
-      <c r="C290" t="s">
+      <c r="B297" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" t="s">
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
         <v>534</v>
       </c>
-      <c r="C291" t="s">
+      <c r="B298" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" t="s">
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
         <v>536</v>
       </c>
-      <c r="C292" t="s">
+      <c r="B299" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" t="s">
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
         <v>538</v>
       </c>
-      <c r="C293" t="s">
+      <c r="B300" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" t="s">
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
         <v>540</v>
       </c>
-      <c r="C294" t="s">
+      <c r="B301" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" t="s">
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" t="s">
+      <c r="B302" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" t="s">
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" t="s">
+      <c r="B303" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" t="s">
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" t="s">
+      <c r="B304" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" t="s">
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" t="s">
+      <c r="B305" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" t="s">
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" t="s">
+      <c r="B306" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" t="s">
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="A306" t="s">
+      <c r="B307" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" t="s">
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="A308" t="s">
+      <c r="B308" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" t="s">
+      <c r="B309" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" t="s">
+      <c r="B310" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="A311" t="s">
+      <c r="B311" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="A312" t="s">
+      <c r="B312" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" t="s">
+      <c r="B313" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" t="s">
+      <c r="B314" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315" t="s">
+      <c r="B315" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" t="s">
+      <c r="B316" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" t="s">
+      <c r="B317" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318" t="s">
+      <c r="B318" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="A319" t="s">
+      <c r="B319" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320" t="s">
+      <c r="B320" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321" t="s">
+      <c r="B321" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="322" spans="1:4">
-      <c r="A322" t="s">
+      <c r="B322" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="323" spans="1:4">
-      <c r="A323" t="s">
+      <c r="B323" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="324" spans="1:4">
-      <c r="A324" t="s">
+      <c r="B324" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="325" spans="1:4">
-      <c r="A325" t="s">
+      <c r="B325" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="326" spans="1:4">
-      <c r="A326" t="s">
+      <c r="B326" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="327" spans="1:4">
-      <c r="A327" t="s">
+      <c r="B327" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="328" spans="1:4">
-      <c r="A328" t="s">
+      <c r="B328" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="A329" t="s">
+      <c r="B329" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" t="s">
+      <c r="B330" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="331" spans="1:4">
-      <c r="A331" t="s">
+      <c r="B331" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="332" spans="1:4">
-      <c r="A332" t="s">
+      <c r="B332" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="333" spans="1:4">
-      <c r="A333" t="s">
+      <c r="B333" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="334" spans="1:4">
-      <c r="A334" t="s">
+      <c r="B334" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="335" spans="1:4">
-      <c r="A335" t="s">
+      <c r="B335" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="336" spans="1:4">
-      <c r="A336" t="s">
+      <c r="B336" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="337" spans="1:4">
-      <c r="A337" t="s">
+      <c r="B337" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
         <v>584</v>
+      </c>
+      <c r="B338" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>585</v>
+      </c>
+      <c r="B339" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>586</v>
+      </c>
+      <c r="B340" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>587</v>
+      </c>
+      <c r="B341" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>588</v>
+      </c>
+      <c r="B342" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>589</v>
+      </c>
+      <c r="B343" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>590</v>
+      </c>
+      <c r="B344" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>591</v>
+      </c>
+      <c r="B345" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>592</v>
+      </c>
+      <c r="B346" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>593</v>
+      </c>
+      <c r="B347" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>594</v>
+      </c>
+      <c r="B348" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>595</v>
+      </c>
+      <c r="B349" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>596</v>
+      </c>
+      <c r="B350" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/data/Items.xlsx
+++ b/data/Items.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B68BFF5-600C-4390-BEC8-D3ED300CDD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="607">
   <si>
     <t>テスト回復</t>
   </si>
@@ -2065,21 +2070,54 @@
   <si>
     <t>シルキーに搾り尽くされた記憶</t>
   </si>
+  <si>
+    <t>Tiger's Silver Vine</t>
+  </si>
+  <si>
+    <t>Silver Vine</t>
+  </si>
+  <si>
+    <t>Strong magic powder to drive a tiger crazy</t>
+  </si>
+  <si>
+    <t>Recorder seed</t>
+  </si>
+  <si>
+    <t>A seed that stores sound, and releases it when it 
+germinates. Can record and play sound.</t>
+  </si>
+  <si>
+    <t>Tiger key</t>
+  </si>
+  <si>
+    <t>A key to open the laboratory doors.
+4 are required.</t>
+  </si>
+  <si>
+    <t>Mantis key</t>
+  </si>
+  <si>
+    <t>Witch lamia key</t>
+  </si>
+  <si>
+    <t>Orc key</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2087,28 +2125,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2398,19 +2449,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B350"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.42578125" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2426,7 +2479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2434,7 +2487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2442,7 +2495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2450,7 +2503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2458,7 +2511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +2519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2474,7 +2527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2482,7 +2535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2490,7 +2543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2498,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2506,7 +2559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2514,7 +2567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2522,7 +2575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2530,7 +2583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2538,7 +2591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2546,7 +2599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2554,7 +2607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2562,7 +2615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2570,7 +2623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2578,7 +2631,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2586,7 +2639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2594,7 +2647,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -2602,7 +2655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2610,7 +2663,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2618,7 +2671,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2626,7 +2679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2634,7 +2687,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2642,7 +2695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -2650,7 +2703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -2658,7 +2711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -2666,7 +2719,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2674,7 +2727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2682,7 +2735,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2690,7 +2743,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2698,7 +2751,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2706,7 +2759,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2767,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2722,7 +2775,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -2730,7 +2783,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2738,7 +2791,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -2746,7 +2799,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -2754,7 +2807,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -2762,7 +2815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -2770,7 +2823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -2778,7 +2831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -2786,7 +2839,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>85</v>
       </c>
@@ -2794,7 +2847,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -2802,7 +2855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -2810,7 +2863,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -2818,7 +2871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -2826,7 +2879,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2834,7 +2887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -2842,7 +2895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -2850,7 +2903,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -2858,7 +2911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -2866,7 +2919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -2874,7 +2927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -2882,7 +2935,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -2890,7 +2943,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>106</v>
       </c>
@@ -2898,7 +2951,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -2906,7 +2959,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -2914,7 +2967,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -2922,7 +2975,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -2930,7 +2983,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -2938,7 +2991,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -2946,7 +2999,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -2954,7 +3007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>121</v>
       </c>
@@ -2962,7 +3015,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -2970,7 +3023,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>124</v>
       </c>
@@ -2978,7 +3031,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -2986,7 +3039,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -2994,7 +3047,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>129</v>
       </c>
@@ -3002,7 +3055,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -3010,7 +3063,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>133</v>
       </c>
@@ -3018,7 +3071,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -3026,7 +3079,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>137</v>
       </c>
@@ -3034,7 +3087,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>139</v>
       </c>
@@ -3042,7 +3095,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -3050,7 +3103,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>143</v>
       </c>
@@ -3058,7 +3111,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -3066,7 +3119,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -3074,7 +3127,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -3082,7 +3135,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -3090,7 +3143,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -3098,7 +3151,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -3106,7 +3159,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>157</v>
       </c>
@@ -3114,7 +3167,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>159</v>
       </c>
@@ -3122,7 +3175,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -3130,7 +3183,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -3138,7 +3191,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -3146,7 +3199,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>167</v>
       </c>
@@ -3154,7 +3207,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>169</v>
       </c>
@@ -3162,7 +3215,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>171</v>
       </c>
@@ -3170,7 +3223,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>173</v>
       </c>
@@ -3178,7 +3231,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>175</v>
       </c>
@@ -3186,7 +3239,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -3194,7 +3247,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -3202,7 +3255,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>181</v>
       </c>
@@ -3210,7 +3263,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>183</v>
       </c>
@@ -3218,17 +3271,17 @@
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>187</v>
       </c>
@@ -3236,7 +3289,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>189</v>
       </c>
@@ -3244,7 +3297,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>191</v>
       </c>
@@ -3252,7 +3305,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>193</v>
       </c>
@@ -3260,7 +3313,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>195</v>
       </c>
@@ -3268,7 +3321,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>197</v>
       </c>
@@ -3276,7 +3329,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>199</v>
       </c>
@@ -3284,7 +3337,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>201</v>
       </c>
@@ -3292,7 +3345,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>203</v>
       </c>
@@ -3300,7 +3353,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>205</v>
       </c>
@@ -3308,7 +3361,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>207</v>
       </c>
@@ -3316,7 +3369,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>209</v>
       </c>
@@ -3324,7 +3377,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>211</v>
       </c>
@@ -3332,7 +3385,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>213</v>
       </c>
@@ -3340,7 +3393,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>215</v>
       </c>
@@ -3348,7 +3401,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>217</v>
       </c>
@@ -3356,7 +3409,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>219</v>
       </c>
@@ -3364,17 +3417,17 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>223</v>
       </c>
@@ -3382,7 +3435,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>225</v>
       </c>
@@ -3390,7 +3443,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>227</v>
       </c>
@@ -3398,7 +3451,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>229</v>
       </c>
@@ -3406,7 +3459,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>231</v>
       </c>
@@ -3414,7 +3467,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>233</v>
       </c>
@@ -3422,7 +3475,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>235</v>
       </c>
@@ -3430,7 +3483,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>237</v>
       </c>
@@ -3438,7 +3491,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>239</v>
       </c>
@@ -3446,7 +3499,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>241</v>
       </c>
@@ -3454,7 +3507,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>243</v>
       </c>
@@ -3462,7 +3515,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>245</v>
       </c>
@@ -3470,7 +3523,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>247</v>
       </c>
@@ -3478,7 +3531,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>249</v>
       </c>
@@ -3486,7 +3539,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>251</v>
       </c>
@@ -3494,7 +3547,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>253</v>
       </c>
@@ -3502,7 +3555,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>255</v>
       </c>
@@ -3510,7 +3563,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>257</v>
       </c>
@@ -3518,7 +3571,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>259</v>
       </c>
@@ -3526,7 +3579,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>261</v>
       </c>
@@ -3534,7 +3587,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>263</v>
       </c>
@@ -3542,7 +3595,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>265</v>
       </c>
@@ -3550,7 +3603,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>267</v>
       </c>
@@ -3558,7 +3611,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>269</v>
       </c>
@@ -3566,7 +3619,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>271</v>
       </c>
@@ -3574,7 +3627,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>273</v>
       </c>
@@ -3582,7 +3635,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>275</v>
       </c>
@@ -3590,7 +3643,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>277</v>
       </c>
@@ -3598,7 +3651,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>279</v>
       </c>
@@ -3606,7 +3659,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>281</v>
       </c>
@@ -3614,7 +3667,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>283</v>
       </c>
@@ -3622,7 +3675,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>285</v>
       </c>
@@ -3630,7 +3683,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>287</v>
       </c>
@@ -3638,7 +3691,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>289</v>
       </c>
@@ -3646,7 +3699,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>291</v>
       </c>
@@ -3654,7 +3707,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>293</v>
       </c>
@@ -3662,7 +3715,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>295</v>
       </c>
@@ -3670,7 +3723,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>297</v>
       </c>
@@ -3678,7 +3731,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>299</v>
       </c>
@@ -3686,7 +3739,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>301</v>
       </c>
@@ -3694,7 +3747,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>303</v>
       </c>
@@ -3702,7 +3755,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>305</v>
       </c>
@@ -3710,7 +3763,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>307</v>
       </c>
@@ -3718,7 +3771,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>309</v>
       </c>
@@ -3726,7 +3779,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>311</v>
       </c>
@@ -3734,7 +3787,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>313</v>
       </c>
@@ -3742,7 +3795,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>315</v>
       </c>
@@ -3750,7 +3803,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>317</v>
       </c>
@@ -3758,7 +3811,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>319</v>
       </c>
@@ -3766,7 +3819,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>321</v>
       </c>
@@ -3774,7 +3827,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>323</v>
       </c>
@@ -3782,7 +3835,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>325</v>
       </c>
@@ -3790,7 +3843,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>327</v>
       </c>
@@ -3798,7 +3851,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>329</v>
       </c>
@@ -3806,7 +3859,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>331</v>
       </c>
@@ -3814,7 +3867,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>333</v>
       </c>
@@ -3822,7 +3875,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>335</v>
       </c>
@@ -3830,7 +3883,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>337</v>
       </c>
@@ -3838,7 +3891,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>339</v>
       </c>
@@ -3846,7 +3899,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>341</v>
       </c>
@@ -3854,7 +3907,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>343</v>
       </c>
@@ -3862,7 +3915,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>345</v>
       </c>
@@ -3870,7 +3923,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>347</v>
       </c>
@@ -3878,7 +3931,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>349</v>
       </c>
@@ -3886,7 +3939,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>351</v>
       </c>
@@ -3894,7 +3947,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>353</v>
       </c>
@@ -3902,7 +3955,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>355</v>
       </c>
@@ -3910,7 +3963,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>357</v>
       </c>
@@ -3918,7 +3971,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>359</v>
       </c>
@@ -3926,7 +3979,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>361</v>
       </c>
@@ -3934,7 +3987,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>363</v>
       </c>
@@ -3942,7 +3995,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>365</v>
       </c>
@@ -3950,7 +4003,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>367</v>
       </c>
@@ -3958,7 +4011,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>369</v>
       </c>
@@ -3966,7 +4019,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>371</v>
       </c>
@@ -3974,7 +4027,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>373</v>
       </c>
@@ -3982,7 +4035,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>375</v>
       </c>
@@ -3990,7 +4043,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>377</v>
       </c>
@@ -3998,33 +4051,42 @@
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>379</v>
       </c>
       <c r="B201" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="C201" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>381</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="C203" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="C204" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>385</v>
       </c>
@@ -4032,7 +4094,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>387</v>
       </c>
@@ -4040,7 +4102,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>389</v>
       </c>
@@ -4048,7 +4110,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>391</v>
       </c>
@@ -4056,7 +4118,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>393</v>
       </c>
@@ -4064,7 +4126,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>395</v>
       </c>
@@ -4072,7 +4134,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>397</v>
       </c>
@@ -4080,7 +4142,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>399</v>
       </c>
@@ -4088,7 +4150,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>401</v>
       </c>
@@ -4096,7 +4158,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>403</v>
       </c>
@@ -4104,7 +4166,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>405</v>
       </c>
@@ -4112,7 +4174,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>407</v>
       </c>
@@ -4120,7 +4182,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>409</v>
       </c>
@@ -4128,7 +4190,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>411</v>
       </c>
@@ -4136,7 +4198,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>413</v>
       </c>
@@ -4144,7 +4206,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>415</v>
       </c>
@@ -4152,7 +4214,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>417</v>
       </c>
@@ -4160,7 +4222,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>419</v>
       </c>
@@ -4168,7 +4230,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -4176,7 +4238,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>423</v>
       </c>
@@ -4184,7 +4246,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>425</v>
       </c>
@@ -4192,7 +4254,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>427</v>
       </c>
@@ -4200,7 +4262,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>429</v>
       </c>
@@ -4208,7 +4270,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>431</v>
       </c>
@@ -4216,7 +4278,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>433</v>
       </c>
@@ -4224,7 +4286,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>435</v>
       </c>
@@ -4232,7 +4294,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>437</v>
       </c>
@@ -4240,7 +4302,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>439</v>
       </c>
@@ -4248,7 +4310,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>441</v>
       </c>
@@ -4256,7 +4318,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>443</v>
       </c>
@@ -4264,7 +4326,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>445</v>
       </c>
@@ -4272,7 +4334,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>447</v>
       </c>
@@ -4280,7 +4342,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>449</v>
       </c>
@@ -4288,7 +4350,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>451</v>
       </c>
@@ -4296,7 +4358,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>453</v>
       </c>
@@ -4304,7 +4366,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>455</v>
       </c>
@@ -4312,7 +4374,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>457</v>
       </c>
@@ -4320,7 +4382,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>459</v>
       </c>
@@ -4328,7 +4390,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>461</v>
       </c>
@@ -4336,7 +4398,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>463</v>
       </c>
@@ -4344,7 +4406,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>465</v>
       </c>
@@ -4352,7 +4414,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>467</v>
       </c>
@@ -4360,7 +4422,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>469</v>
       </c>
@@ -4368,7 +4430,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>471</v>
       </c>
@@ -4376,7 +4438,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>473</v>
       </c>
@@ -4384,7 +4446,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>475</v>
       </c>
@@ -4392,7 +4454,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>477</v>
       </c>
@@ -4400,7 +4462,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>479</v>
       </c>
@@ -4408,7 +4470,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>481</v>
       </c>
@@ -4416,7 +4478,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>483</v>
       </c>
@@ -4424,7 +4486,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>485</v>
       </c>
@@ -4432,7 +4494,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>487</v>
       </c>
@@ -4440,7 +4502,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>489</v>
       </c>
@@ -4448,42 +4510,63 @@
         <v>490</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
+      <c r="C258" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="260" spans="1:2">
+      <c r="C259" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
+      <c r="C260" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
+      <c r="C261" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="263" spans="1:2">
+      <c r="C262" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="264" spans="1:2">
+      <c r="C263" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="265" spans="1:2">
+      <c r="C264" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>498</v>
       </c>
@@ -4491,23 +4574,24 @@
         <v>498</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>499</v>
       </c>
       <c r="B266" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="267" spans="1:2">
+      <c r="C266" s="1"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>500</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>501</v>
       </c>
@@ -4515,7 +4599,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>502</v>
       </c>
@@ -4523,7 +4607,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>503</v>
       </c>
@@ -4531,7 +4615,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>504</v>
       </c>
@@ -4539,7 +4623,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>505</v>
       </c>
@@ -4547,7 +4631,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>506</v>
       </c>
@@ -4555,7 +4639,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>507</v>
       </c>
@@ -4563,7 +4647,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>508</v>
       </c>
@@ -4571,7 +4655,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>509</v>
       </c>
@@ -4579,7 +4663,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>510</v>
       </c>
@@ -4587,7 +4671,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>511</v>
       </c>
@@ -4595,7 +4679,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>512</v>
       </c>
@@ -4603,7 +4687,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>513</v>
       </c>
@@ -4611,7 +4695,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>514</v>
       </c>
@@ -4619,7 +4703,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>515</v>
       </c>
@@ -4627,7 +4711,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>516</v>
       </c>
@@ -4635,7 +4719,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>517</v>
       </c>
@@ -4643,7 +4727,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>518</v>
       </c>
@@ -4651,7 +4735,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>519</v>
       </c>
@@ -4659,7 +4743,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>520</v>
       </c>
@@ -4667,7 +4751,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>521</v>
       </c>
@@ -4675,7 +4759,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>522</v>
       </c>
@@ -4683,7 +4767,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>523</v>
       </c>
@@ -4691,7 +4775,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>524</v>
       </c>
@@ -4699,7 +4783,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>525</v>
       </c>
@@ -4707,7 +4791,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>526</v>
       </c>
@@ -4715,7 +4799,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>527</v>
       </c>
@@ -4723,7 +4807,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>528</v>
       </c>
@@ -4731,7 +4815,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>530</v>
       </c>
@@ -4739,7 +4823,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>532</v>
       </c>
@@ -4747,7 +4831,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>534</v>
       </c>
@@ -4755,7 +4839,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>536</v>
       </c>
@@ -4763,7 +4847,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>538</v>
       </c>
@@ -4771,7 +4855,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>540</v>
       </c>
@@ -4779,7 +4863,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>542</v>
       </c>
@@ -4787,7 +4871,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>544</v>
       </c>
@@ -4795,7 +4879,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>546</v>
       </c>
@@ -4803,7 +4887,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>548</v>
       </c>
@@ -4811,7 +4895,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>550</v>
       </c>
@@ -4819,7 +4903,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>552</v>
       </c>
@@ -4827,7 +4911,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>554</v>
       </c>
@@ -4835,7 +4919,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>555</v>
       </c>
@@ -4843,7 +4927,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>556</v>
       </c>
@@ -4851,7 +4935,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>557</v>
       </c>
@@ -4859,7 +4943,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>558</v>
       </c>
@@ -4867,7 +4951,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>559</v>
       </c>
@@ -4875,7 +4959,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>560</v>
       </c>
@@ -4883,7 +4967,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>561</v>
       </c>
@@ -4891,7 +4975,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>562</v>
       </c>
@@ -4899,7 +4983,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>563</v>
       </c>
@@ -4907,7 +4991,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>564</v>
       </c>
@@ -4915,7 +4999,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>565</v>
       </c>
@@ -4923,7 +5007,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>566</v>
       </c>
@@ -4931,7 +5015,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>567</v>
       </c>
@@ -4939,7 +5023,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>568</v>
       </c>
@@ -4947,7 +5031,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>569</v>
       </c>
@@ -4955,7 +5039,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>570</v>
       </c>
@@ -4963,7 +5047,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>571</v>
       </c>
@@ -4971,7 +5055,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>572</v>
       </c>
@@ -4979,7 +5063,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>573</v>
       </c>
@@ -4987,7 +5071,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>574</v>
       </c>
@@ -4995,7 +5079,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>575</v>
       </c>
@@ -5003,7 +5087,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>576</v>
       </c>
@@ -5011,7 +5095,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>577</v>
       </c>
@@ -5019,7 +5103,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>578</v>
       </c>
@@ -5027,7 +5111,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>579</v>
       </c>
@@ -5035,7 +5119,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>580</v>
       </c>
@@ -5043,7 +5127,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>581</v>
       </c>
@@ -5051,7 +5135,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>582</v>
       </c>
@@ -5059,7 +5143,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>583</v>
       </c>
@@ -5067,7 +5151,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>584</v>
       </c>
@@ -5075,7 +5159,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>585</v>
       </c>
@@ -5083,7 +5167,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>586</v>
       </c>
@@ -5091,7 +5175,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>587</v>
       </c>
@@ -5099,7 +5183,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>588</v>
       </c>
@@ -5107,7 +5191,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>589</v>
       </c>
@@ -5115,7 +5199,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>590</v>
       </c>
@@ -5123,7 +5207,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>591</v>
       </c>
@@ -5131,7 +5215,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>592</v>
       </c>
@@ -5139,7 +5223,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>593</v>
       </c>
@@ -5147,7 +5231,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>594</v>
       </c>
@@ -5155,7 +5239,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>595</v>
       </c>
@@ -5163,7 +5247,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>596</v>
       </c>
@@ -5172,17 +5256,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>